--- a/data/rki_rwert_excel.xlsx
+++ b/data/rki_rwert_excel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF1E86A-FBDF-47EF-9EE6-F56A443E10C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAAC9FD-DD11-4103-8567-FC9A3F501811}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="429">
   <si>
     <t>Erläuterung</t>
   </si>
@@ -27,7 +27,7 @@
     <t>Ergebnisse des Nowcastings und der Schätzung der Reproduktionszahl R</t>
   </si>
   <si>
-    <t>Datenstand: 2021-04-12, 00:00 Uhr</t>
+    <t>Datenstand: 2021-04-13, 00:00 Uhr</t>
   </si>
   <si>
     <t>Die Ergebnisse des Nowcastings, also die Schätzung der Anzahl von COVID-19 Neuerkrankungen wird dargestellt mit einem gleitenden 4-Tages-Mittelwert.</t>
@@ -36,7 +36,7 @@
     <t>Dabei wird jeder Wert mit den Werten der 3 vorhergehenden Tage gemittelt.</t>
   </si>
   <si>
-    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 2021-04-12 dargestellten Nowcasting-Kurve.</t>
+    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 2021-04-13 dargestellten Nowcasting-Kurve.</t>
   </si>
   <si>
     <t>Der letzte Schätzwert der Reproduktionszahl R wird ebenfalls im gleichen Lagebericht erwähnt.</t>
@@ -1263,6 +1263,9 @@
     <t>08.04.2021</t>
   </si>
   <si>
+    <t>09.04.2021</t>
+  </si>
+  <si>
     <t>Punktschätzer der Anzahl Neuerkrankungen (ohne Glättung)</t>
   </si>
   <si>
@@ -1275,18 +1278,9 @@
     <t>Obere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen</t>
   </si>
   <si>
-    <t>Punktschätzer der 4-Tage R-Wert</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
-    <t>Untere Grenze des 95%-Prädiktionsintervalls der 4-Tage R-Wert</t>
-  </si>
-  <si>
-    <t>Obere Grenze des 95%-Prädiktionsintervalls der 4-Tage R-Wert</t>
-  </si>
-  <si>
     <t>Punktschätzer des 7-Tage-R Wertes</t>
   </si>
   <si>
@@ -1299,7 +1293,16 @@
     <t>Untere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glättung)</t>
   </si>
   <si>
-    <t>Obere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glättung)</t>
+    <t>Obere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glätttung)</t>
+  </si>
+  <si>
+    <t>Punktschätzer des 4-Tage R-Wertes</t>
+  </si>
+  <si>
+    <t>Untere Grenze des 95%-Prädiktionsintervalls des 4-Tage R-Wertes</t>
+  </si>
+  <si>
+    <t>Obere Grenze des 95%-Prädiktionsintervalls des 4-Tage R-Wertes</t>
   </si>
 </sst>
 </file>
@@ -1657,7 +1660,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1751,62 +1754,73 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M404"/>
+  <dimension ref="A1:M405"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:M404"/>
+      <selection activeCell="H6" sqref="H6:M405"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="13" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="12" max="13" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="70.900000000000006" customHeight="1">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="94.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -15798,10 +15812,10 @@
         <v>6735</v>
       </c>
       <c r="C343" s="2">
-        <v>6640</v>
+        <v>6641</v>
       </c>
       <c r="D343" s="2">
-        <v>6836</v>
+        <v>6835</v>
       </c>
       <c r="E343" s="2">
         <v>7672</v>
@@ -15848,10 +15862,10 @@
         <v>7112</v>
       </c>
       <c r="F344" s="2">
-        <v>7009</v>
+        <v>7010</v>
       </c>
       <c r="G344" s="2">
-        <v>7215</v>
+        <v>7214</v>
       </c>
       <c r="H344" s="3">
         <v>0.78</v>
@@ -15918,13 +15932,13 @@
         <v>356</v>
       </c>
       <c r="B346" s="2">
-        <v>7685</v>
+        <v>7684</v>
       </c>
       <c r="C346" s="2">
-        <v>7588</v>
+        <v>7585</v>
       </c>
       <c r="D346" s="2">
-        <v>7785</v>
+        <v>7788</v>
       </c>
       <c r="E346" s="2">
         <v>7248</v>
@@ -15962,19 +15976,19 @@
         <v>7430</v>
       </c>
       <c r="C347" s="2">
-        <v>7326</v>
+        <v>7328</v>
       </c>
       <c r="D347" s="2">
-        <v>7519</v>
+        <v>7518</v>
       </c>
       <c r="E347" s="2">
-        <v>7422</v>
+        <v>7421</v>
       </c>
       <c r="F347" s="2">
         <v>7318</v>
       </c>
       <c r="G347" s="2">
-        <v>7521</v>
+        <v>7522</v>
       </c>
       <c r="H347" s="3">
         <v>0.97</v>
@@ -16003,7 +16017,7 @@
         <v>6691</v>
       </c>
       <c r="C348" s="2">
-        <v>6597</v>
+        <v>6598</v>
       </c>
       <c r="D348" s="2">
         <v>6804</v>
@@ -16012,10 +16026,10 @@
         <v>7485</v>
       </c>
       <c r="F348" s="2">
-        <v>7381</v>
+        <v>7380</v>
       </c>
       <c r="G348" s="2">
-        <v>7589</v>
+        <v>7590</v>
       </c>
       <c r="H348" s="3">
         <v>1.05</v>
@@ -16044,7 +16058,7 @@
         <v>6907</v>
       </c>
       <c r="C349" s="2">
-        <v>6812</v>
+        <v>6809</v>
       </c>
       <c r="D349" s="2">
         <v>7023</v>
@@ -16053,10 +16067,10 @@
         <v>7178</v>
       </c>
       <c r="F349" s="2">
-        <v>7081</v>
+        <v>7080</v>
       </c>
       <c r="G349" s="2">
-        <v>7282</v>
+        <v>7283</v>
       </c>
       <c r="H349" s="3">
         <v>1</v>
@@ -16085,16 +16099,16 @@
         <v>6423</v>
       </c>
       <c r="C350" s="2">
-        <v>6326</v>
+        <v>6321</v>
       </c>
       <c r="D350" s="2">
-        <v>6539</v>
+        <v>6538</v>
       </c>
       <c r="E350" s="2">
         <v>6863</v>
       </c>
       <c r="F350" s="2">
-        <v>6765</v>
+        <v>6764</v>
       </c>
       <c r="G350" s="2">
         <v>6971</v>
@@ -16123,19 +16137,19 @@
         <v>361</v>
       </c>
       <c r="B351" s="2">
-        <v>6625</v>
+        <v>6626</v>
       </c>
       <c r="C351" s="2">
-        <v>6546</v>
+        <v>6543</v>
       </c>
       <c r="D351" s="2">
-        <v>6734</v>
+        <v>6735</v>
       </c>
       <c r="E351" s="2">
-        <v>6662</v>
+        <v>6661</v>
       </c>
       <c r="F351" s="2">
-        <v>6570</v>
+        <v>6567</v>
       </c>
       <c r="G351" s="2">
         <v>6775</v>
@@ -16167,16 +16181,16 @@
         <v>8545</v>
       </c>
       <c r="C352" s="2">
-        <v>8436</v>
+        <v>8434</v>
       </c>
       <c r="D352" s="2">
-        <v>8653</v>
+        <v>8652</v>
       </c>
       <c r="E352" s="2">
         <v>7125</v>
       </c>
       <c r="F352" s="2">
-        <v>7030</v>
+        <v>7027</v>
       </c>
       <c r="G352" s="2">
         <v>7237</v>
@@ -16208,16 +16222,16 @@
         <v>8146</v>
       </c>
       <c r="C353" s="2">
-        <v>8032</v>
+        <v>8029</v>
       </c>
       <c r="D353" s="2">
-        <v>8282</v>
+        <v>8285</v>
       </c>
       <c r="E353" s="2">
         <v>7435</v>
       </c>
       <c r="F353" s="2">
-        <v>7335</v>
+        <v>7332</v>
       </c>
       <c r="G353" s="2">
         <v>7552</v>
@@ -16252,13 +16266,13 @@
         <v>7946</v>
       </c>
       <c r="D354" s="2">
-        <v>8174</v>
+        <v>8173</v>
       </c>
       <c r="E354" s="2">
         <v>7847</v>
       </c>
       <c r="F354" s="2">
-        <v>7740</v>
+        <v>7738</v>
       </c>
       <c r="G354" s="2">
         <v>7961</v>
@@ -16290,16 +16304,16 @@
         <v>7719</v>
       </c>
       <c r="C355" s="2">
-        <v>7593</v>
+        <v>7596</v>
       </c>
       <c r="D355" s="2">
-        <v>7831</v>
+        <v>7830</v>
       </c>
       <c r="E355" s="2">
         <v>8121</v>
       </c>
       <c r="F355" s="2">
-        <v>8002</v>
+        <v>8001</v>
       </c>
       <c r="G355" s="2">
         <v>8235</v>
@@ -16334,16 +16348,16 @@
         <v>7535</v>
       </c>
       <c r="D356" s="2">
-        <v>7767</v>
+        <v>7755</v>
       </c>
       <c r="E356" s="2">
-        <v>7898</v>
+        <v>7897</v>
       </c>
       <c r="F356" s="2">
         <v>7776</v>
       </c>
       <c r="G356" s="2">
-        <v>8013</v>
+        <v>8010</v>
       </c>
       <c r="H356" s="3">
         <v>1.1100000000000001</v>
@@ -16372,10 +16386,10 @@
         <v>7382</v>
       </c>
       <c r="C357" s="2">
-        <v>7282</v>
+        <v>7278</v>
       </c>
       <c r="D357" s="2">
-        <v>7484</v>
+        <v>7490</v>
       </c>
       <c r="E357" s="2">
         <v>7707</v>
@@ -16384,7 +16398,7 @@
         <v>7589</v>
       </c>
       <c r="G357" s="2">
-        <v>7814</v>
+        <v>7812</v>
       </c>
       <c r="H357" s="3">
         <v>1.04</v>
@@ -16410,22 +16424,22 @@
         <v>368</v>
       </c>
       <c r="B358" s="2">
-        <v>7125</v>
+        <v>7126</v>
       </c>
       <c r="C358" s="2">
-        <v>7028</v>
+        <v>7027</v>
       </c>
       <c r="D358" s="2">
-        <v>7230</v>
+        <v>7233</v>
       </c>
       <c r="E358" s="2">
         <v>7470</v>
       </c>
       <c r="F358" s="2">
-        <v>7360</v>
+        <v>7359</v>
       </c>
       <c r="G358" s="2">
-        <v>7578</v>
+        <v>7577</v>
       </c>
       <c r="H358" s="3">
         <v>0.95</v>
@@ -16451,13 +16465,13 @@
         <v>369</v>
       </c>
       <c r="B359" s="2">
-        <v>8957</v>
+        <v>8956</v>
       </c>
       <c r="C359" s="2">
-        <v>8823</v>
+        <v>8829</v>
       </c>
       <c r="D359" s="2">
-        <v>9061</v>
+        <v>9068</v>
       </c>
       <c r="E359" s="2">
         <v>7779</v>
@@ -16466,7 +16480,7 @@
         <v>7667</v>
       </c>
       <c r="G359" s="2">
-        <v>7885</v>
+        <v>7886</v>
       </c>
       <c r="H359" s="3">
         <v>0.96</v>
@@ -16492,22 +16506,22 @@
         <v>370</v>
       </c>
       <c r="B360" s="2">
-        <v>8501</v>
+        <v>8499</v>
       </c>
       <c r="C360" s="2">
-        <v>8394</v>
+        <v>8392</v>
       </c>
       <c r="D360" s="2">
-        <v>8598</v>
+        <v>8604</v>
       </c>
       <c r="E360" s="2">
         <v>7991</v>
       </c>
       <c r="F360" s="2">
-        <v>7882</v>
+        <v>7881</v>
       </c>
       <c r="G360" s="2">
-        <v>8093</v>
+        <v>8098</v>
       </c>
       <c r="H360" s="3">
         <v>1.01</v>
@@ -16533,22 +16547,22 @@
         <v>371</v>
       </c>
       <c r="B361" s="2">
-        <v>8088</v>
+        <v>8089</v>
       </c>
       <c r="C361" s="2">
-        <v>7985</v>
+        <v>7984</v>
       </c>
       <c r="D361" s="2">
-        <v>8207</v>
+        <v>8205</v>
       </c>
       <c r="E361" s="2">
         <v>8168</v>
       </c>
       <c r="F361" s="2">
-        <v>8057</v>
+        <v>8058</v>
       </c>
       <c r="G361" s="2">
-        <v>8274</v>
+        <v>8277</v>
       </c>
       <c r="H361" s="3">
         <v>1.06</v>
@@ -16574,22 +16588,22 @@
         <v>372</v>
       </c>
       <c r="B362" s="2">
-        <v>7659</v>
+        <v>7658</v>
       </c>
       <c r="C362" s="2">
-        <v>7545</v>
+        <v>7546</v>
       </c>
       <c r="D362" s="2">
-        <v>7775</v>
+        <v>7774</v>
       </c>
       <c r="E362" s="2">
         <v>8301</v>
       </c>
       <c r="F362" s="2">
-        <v>8187</v>
+        <v>8188</v>
       </c>
       <c r="G362" s="2">
-        <v>8410</v>
+        <v>8412</v>
       </c>
       <c r="H362" s="3">
         <v>1.1100000000000001</v>
@@ -16615,19 +16629,19 @@
         <v>373</v>
       </c>
       <c r="B363" s="2">
-        <v>7939</v>
+        <v>7940</v>
       </c>
       <c r="C363" s="2">
-        <v>7846</v>
+        <v>7844</v>
       </c>
       <c r="D363" s="2">
-        <v>8054</v>
+        <v>8050</v>
       </c>
       <c r="E363" s="2">
         <v>8047</v>
       </c>
       <c r="F363" s="2">
-        <v>7942</v>
+        <v>7941</v>
       </c>
       <c r="G363" s="2">
         <v>8158</v>
@@ -16636,7 +16650,7 @@
         <v>1.03</v>
       </c>
       <c r="I363" s="3">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="J363" s="3">
         <v>1.04</v>
@@ -16656,22 +16670,22 @@
         <v>374</v>
       </c>
       <c r="B364" s="2">
-        <v>7183</v>
+        <v>7182</v>
       </c>
       <c r="C364" s="2">
-        <v>7083</v>
+        <v>7082</v>
       </c>
       <c r="D364" s="2">
-        <v>7297</v>
+        <v>7288</v>
       </c>
       <c r="E364" s="2">
         <v>7717</v>
       </c>
       <c r="F364" s="2">
-        <v>7615</v>
+        <v>7614</v>
       </c>
       <c r="G364" s="2">
-        <v>7833</v>
+        <v>7829</v>
       </c>
       <c r="H364" s="3">
         <v>0.97</v>
@@ -16697,22 +16711,22 @@
         <v>375</v>
       </c>
       <c r="B365" s="2">
-        <v>7352</v>
+        <v>7350</v>
       </c>
       <c r="C365" s="2">
-        <v>7237</v>
+        <v>7227</v>
       </c>
       <c r="D365" s="2">
-        <v>7466</v>
+        <v>7453</v>
       </c>
       <c r="E365" s="2">
-        <v>7533</v>
+        <v>7532</v>
       </c>
       <c r="F365" s="2">
-        <v>7428</v>
+        <v>7424</v>
       </c>
       <c r="G365" s="2">
-        <v>7648</v>
+        <v>7641</v>
       </c>
       <c r="H365" s="3">
         <v>0.92</v>
@@ -16738,22 +16752,22 @@
         <v>376</v>
       </c>
       <c r="B366" s="2">
-        <v>9526</v>
+        <v>9525</v>
       </c>
       <c r="C366" s="2">
-        <v>9409</v>
+        <v>9416</v>
       </c>
       <c r="D366" s="2">
-        <v>9621</v>
+        <v>9644</v>
       </c>
       <c r="E366" s="2">
-        <v>8000</v>
+        <v>7999</v>
       </c>
       <c r="F366" s="2">
-        <v>7894</v>
+        <v>7892</v>
       </c>
       <c r="G366" s="2">
-        <v>8109</v>
+        <v>8108</v>
       </c>
       <c r="H366" s="3">
         <v>0.96</v>
@@ -16782,19 +16796,19 @@
         <v>8913</v>
       </c>
       <c r="C367" s="2">
-        <v>8797</v>
+        <v>8817</v>
       </c>
       <c r="D367" s="2">
-        <v>9042</v>
+        <v>9029</v>
       </c>
       <c r="E367" s="2">
-        <v>8244</v>
+        <v>8243</v>
       </c>
       <c r="F367" s="2">
-        <v>8131</v>
+        <v>8135</v>
       </c>
       <c r="G367" s="2">
-        <v>8356</v>
+        <v>8353</v>
       </c>
       <c r="H367" s="3">
         <v>1.02</v>
@@ -16803,7 +16817,7 @@
         <v>1.02</v>
       </c>
       <c r="J367" s="3">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K367" s="3">
         <v>1.04</v>
@@ -16820,22 +16834,22 @@
         <v>378</v>
       </c>
       <c r="B368" s="2">
-        <v>9005</v>
+        <v>9001</v>
       </c>
       <c r="C368" s="2">
-        <v>8887</v>
+        <v>8875</v>
       </c>
       <c r="D368" s="2">
-        <v>9115</v>
+        <v>9107</v>
       </c>
       <c r="E368" s="2">
-        <v>8699</v>
+        <v>8697</v>
       </c>
       <c r="F368" s="2">
-        <v>8582</v>
+        <v>8583</v>
       </c>
       <c r="G368" s="2">
-        <v>8811</v>
+        <v>8808</v>
       </c>
       <c r="H368" s="3">
         <v>1.1299999999999999</v>
@@ -16861,22 +16875,22 @@
         <v>379</v>
       </c>
       <c r="B369" s="2">
-        <v>8661</v>
+        <v>8659</v>
       </c>
       <c r="C369" s="2">
-        <v>8546</v>
+        <v>8545</v>
       </c>
       <c r="D369" s="2">
         <v>8764</v>
       </c>
       <c r="E369" s="2">
-        <v>9026</v>
+        <v>9025</v>
       </c>
       <c r="F369" s="2">
-        <v>8910</v>
+        <v>8913</v>
       </c>
       <c r="G369" s="2">
-        <v>9135</v>
+        <v>9136</v>
       </c>
       <c r="H369" s="3">
         <v>1.2</v>
@@ -16891,7 +16905,7 @@
         <v>1.06</v>
       </c>
       <c r="L369" s="3">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="M369" s="3">
         <v>1.07</v>
@@ -16902,22 +16916,22 @@
         <v>380</v>
       </c>
       <c r="B370" s="2">
-        <v>9030</v>
+        <v>9026</v>
       </c>
       <c r="C370" s="2">
-        <v>8936</v>
+        <v>8924</v>
       </c>
       <c r="D370" s="2">
-        <v>9153</v>
+        <v>9136</v>
       </c>
       <c r="E370" s="2">
-        <v>8902</v>
+        <v>8900</v>
       </c>
       <c r="F370" s="2">
-        <v>8791</v>
+        <v>8790</v>
       </c>
       <c r="G370" s="2">
-        <v>9018</v>
+        <v>9009</v>
       </c>
       <c r="H370" s="3">
         <v>1.1100000000000001</v>
@@ -16943,22 +16957,22 @@
         <v>381</v>
       </c>
       <c r="B371" s="2">
-        <v>8889</v>
+        <v>8901</v>
       </c>
       <c r="C371" s="2">
-        <v>8804</v>
+        <v>8776</v>
       </c>
       <c r="D371" s="2">
-        <v>9007</v>
+        <v>9024</v>
       </c>
       <c r="E371" s="2">
-        <v>8896</v>
+        <v>8897</v>
       </c>
       <c r="F371" s="2">
-        <v>8793</v>
+        <v>8780</v>
       </c>
       <c r="G371" s="2">
-        <v>9009</v>
+        <v>9008</v>
       </c>
       <c r="H371" s="3">
         <v>1.08</v>
@@ -16984,22 +16998,22 @@
         <v>382</v>
       </c>
       <c r="B372" s="2">
-        <v>9053</v>
+        <v>9037</v>
       </c>
       <c r="C372" s="2">
-        <v>8915</v>
+        <v>8926</v>
       </c>
       <c r="D372" s="2">
-        <v>9162</v>
+        <v>9148</v>
       </c>
       <c r="E372" s="2">
-        <v>8908</v>
+        <v>8906</v>
       </c>
       <c r="F372" s="2">
-        <v>8800</v>
+        <v>8793</v>
       </c>
       <c r="G372" s="2">
-        <v>9021</v>
+        <v>9018</v>
       </c>
       <c r="H372" s="3">
         <v>1.02</v>
@@ -17025,28 +17039,28 @@
         <v>383</v>
       </c>
       <c r="B373" s="2">
-        <v>11783</v>
+        <v>11800</v>
       </c>
       <c r="C373" s="2">
-        <v>11655</v>
+        <v>11671</v>
       </c>
       <c r="D373" s="2">
-        <v>11900</v>
+        <v>11925</v>
       </c>
       <c r="E373" s="2">
-        <v>9689</v>
+        <v>9691</v>
       </c>
       <c r="F373" s="2">
-        <v>9577</v>
+        <v>9574</v>
       </c>
       <c r="G373" s="2">
-        <v>9805</v>
+        <v>9808</v>
       </c>
       <c r="H373" s="3">
         <v>1.07</v>
       </c>
       <c r="I373" s="3">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="J373" s="3">
         <v>1.08</v>
@@ -17066,22 +17080,22 @@
         <v>384</v>
       </c>
       <c r="B374" s="2">
-        <v>11507</v>
+        <v>11499</v>
       </c>
       <c r="C374" s="2">
-        <v>11382</v>
+        <v>11361</v>
       </c>
       <c r="D374" s="2">
-        <v>11671</v>
+        <v>11650</v>
       </c>
       <c r="E374" s="2">
-        <v>10308</v>
+        <v>10309</v>
       </c>
       <c r="F374" s="2">
-        <v>10189</v>
+        <v>10183</v>
       </c>
       <c r="G374" s="2">
-        <v>10435</v>
+        <v>10437</v>
       </c>
       <c r="H374" s="3">
         <v>1.1599999999999999</v>
@@ -17099,7 +17113,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="M374" s="3">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="375" spans="1:13">
@@ -17110,16 +17124,16 @@
         <v>11706</v>
       </c>
       <c r="C375" s="2">
-        <v>11576</v>
+        <v>11579</v>
       </c>
       <c r="D375" s="2">
-        <v>11825</v>
+        <v>11833</v>
       </c>
       <c r="E375" s="2">
-        <v>11012</v>
+        <v>11010</v>
       </c>
       <c r="F375" s="2">
-        <v>10882</v>
+        <v>10884</v>
       </c>
       <c r="G375" s="2">
         <v>11139</v>
@@ -17134,7 +17148,7 @@
         <v>1.25</v>
       </c>
       <c r="K375" s="3">
-        <v>1.1599999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="L375" s="3">
         <v>1.1599999999999999</v>
@@ -17148,28 +17162,28 @@
         <v>386</v>
       </c>
       <c r="B376" s="2">
-        <v>11512</v>
+        <v>11522</v>
       </c>
       <c r="C376" s="2">
-        <v>11372</v>
+        <v>11370</v>
       </c>
       <c r="D376" s="2">
-        <v>11642</v>
+        <v>11675</v>
       </c>
       <c r="E376" s="2">
-        <v>11627</v>
+        <v>11632</v>
       </c>
       <c r="F376" s="2">
-        <v>11496</v>
+        <v>11495</v>
       </c>
       <c r="G376" s="2">
-        <v>11759</v>
+        <v>11771</v>
       </c>
       <c r="H376" s="3">
         <v>1.31</v>
       </c>
       <c r="I376" s="3">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="J376" s="3">
         <v>1.32</v>
@@ -17189,22 +17203,22 @@
         <v>387</v>
       </c>
       <c r="B377" s="2">
-        <v>12055</v>
+        <v>12062</v>
       </c>
       <c r="C377" s="2">
-        <v>11919</v>
+        <v>11923</v>
       </c>
       <c r="D377" s="2">
-        <v>12219</v>
+        <v>12176</v>
       </c>
       <c r="E377" s="2">
-        <v>11695</v>
+        <v>11697</v>
       </c>
       <c r="F377" s="2">
-        <v>11562</v>
+        <v>11558</v>
       </c>
       <c r="G377" s="2">
-        <v>11839</v>
+        <v>11833</v>
       </c>
       <c r="H377" s="3">
         <v>1.21</v>
@@ -17230,22 +17244,22 @@
         <v>388</v>
       </c>
       <c r="B378" s="2">
-        <v>11833</v>
+        <v>11835</v>
       </c>
       <c r="C378" s="2">
-        <v>11689</v>
+        <v>11707</v>
       </c>
       <c r="D378" s="2">
-        <v>11990</v>
+        <v>11960</v>
       </c>
       <c r="E378" s="2">
-        <v>11776</v>
+        <v>11781</v>
       </c>
       <c r="F378" s="2">
-        <v>11639</v>
+        <v>11644</v>
       </c>
       <c r="G378" s="2">
-        <v>11919</v>
+        <v>11911</v>
       </c>
       <c r="H378" s="3">
         <v>1.1399999999999999</v>
@@ -17271,22 +17285,22 @@
         <v>389</v>
       </c>
       <c r="B379" s="2">
-        <v>12127</v>
+        <v>12125</v>
       </c>
       <c r="C379" s="2">
-        <v>11974</v>
+        <v>11958</v>
       </c>
       <c r="D379" s="2">
-        <v>12293</v>
+        <v>12291</v>
       </c>
       <c r="E379" s="2">
-        <v>11882</v>
+        <v>11886</v>
       </c>
       <c r="F379" s="2">
-        <v>11738</v>
+        <v>11739</v>
       </c>
       <c r="G379" s="2">
-        <v>12036</v>
+        <v>12025</v>
       </c>
       <c r="H379" s="3">
         <v>1.08</v>
@@ -17312,22 +17326,22 @@
         <v>390</v>
       </c>
       <c r="B380" s="2">
-        <v>15414</v>
+        <v>15421</v>
       </c>
       <c r="C380" s="2">
-        <v>15250</v>
+        <v>15230</v>
       </c>
       <c r="D380" s="2">
-        <v>15612</v>
+        <v>15576</v>
       </c>
       <c r="E380" s="2">
-        <v>12857</v>
+        <v>12861</v>
       </c>
       <c r="F380" s="2">
-        <v>12708</v>
+        <v>12704</v>
       </c>
       <c r="G380" s="2">
-        <v>13028</v>
+        <v>13001</v>
       </c>
       <c r="H380" s="3">
         <v>1.1100000000000001</v>
@@ -17342,10 +17356,10 @@
         <v>1.17</v>
       </c>
       <c r="L380" s="3">
-        <v>1.1599999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="M380" s="3">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="381" spans="1:13">
@@ -17353,22 +17367,22 @@
         <v>391</v>
       </c>
       <c r="B381" s="2">
-        <v>14897</v>
+        <v>14893</v>
       </c>
       <c r="C381" s="2">
-        <v>14691</v>
+        <v>14665</v>
       </c>
       <c r="D381" s="2">
-        <v>15074</v>
+        <v>15118</v>
       </c>
       <c r="E381" s="2">
-        <v>13568</v>
+        <v>13569</v>
       </c>
       <c r="F381" s="2">
-        <v>13401</v>
+        <v>13390</v>
       </c>
       <c r="G381" s="2">
-        <v>13742</v>
+        <v>13736</v>
       </c>
       <c r="H381" s="3">
         <v>1.1599999999999999</v>
@@ -17394,22 +17408,22 @@
         <v>392</v>
       </c>
       <c r="B382" s="2">
-        <v>15029</v>
+        <v>15011</v>
       </c>
       <c r="C382" s="2">
-        <v>14869</v>
+        <v>14828</v>
       </c>
       <c r="D382" s="2">
-        <v>15206</v>
+        <v>15213</v>
       </c>
       <c r="E382" s="2">
-        <v>14367</v>
+        <v>14362</v>
       </c>
       <c r="F382" s="2">
-        <v>14196</v>
+        <v>14170</v>
       </c>
       <c r="G382" s="2">
-        <v>14546</v>
+        <v>14549</v>
       </c>
       <c r="H382" s="3">
         <v>1.22</v>
@@ -17435,22 +17449,22 @@
         <v>393</v>
       </c>
       <c r="B383" s="2">
-        <v>14275</v>
+        <v>14281</v>
       </c>
       <c r="C383" s="2">
-        <v>14055</v>
+        <v>14116</v>
       </c>
       <c r="D383" s="2">
-        <v>14430</v>
+        <v>14450</v>
       </c>
       <c r="E383" s="2">
-        <v>14904</v>
+        <v>14901</v>
       </c>
       <c r="F383" s="2">
-        <v>14716</v>
+        <v>14710</v>
       </c>
       <c r="G383" s="2">
-        <v>15080</v>
+        <v>15089</v>
       </c>
       <c r="H383" s="3">
         <v>1.25</v>
@@ -17476,22 +17490,22 @@
         <v>394</v>
       </c>
       <c r="B384" s="2">
-        <v>14855</v>
+        <v>14838</v>
       </c>
       <c r="C384" s="2">
         <v>14656</v>
       </c>
       <c r="D384" s="2">
-        <v>15050</v>
+        <v>15049</v>
       </c>
       <c r="E384" s="2">
-        <v>14764</v>
+        <v>14755</v>
       </c>
       <c r="F384" s="2">
-        <v>14568</v>
+        <v>14566</v>
       </c>
       <c r="G384" s="2">
-        <v>14940</v>
+        <v>14957</v>
       </c>
       <c r="H384" s="3">
         <v>1.1499999999999999</v>
@@ -17517,22 +17531,22 @@
         <v>395</v>
       </c>
       <c r="B385" s="2">
-        <v>15026</v>
+        <v>15005</v>
       </c>
       <c r="C385" s="2">
-        <v>14767</v>
+        <v>14787</v>
       </c>
       <c r="D385" s="2">
-        <v>15266</v>
+        <v>15208</v>
       </c>
       <c r="E385" s="2">
-        <v>14797</v>
+        <v>14784</v>
       </c>
       <c r="F385" s="2">
-        <v>14587</v>
+        <v>14597</v>
       </c>
       <c r="G385" s="2">
-        <v>14988</v>
+        <v>14980</v>
       </c>
       <c r="H385" s="3">
         <v>1.0900000000000001</v>
@@ -17550,7 +17564,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="M385" s="3">
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="386" spans="1:13">
@@ -17558,22 +17572,22 @@
         <v>396</v>
       </c>
       <c r="B386" s="2">
-        <v>15416</v>
+        <v>15432</v>
       </c>
       <c r="C386" s="2">
-        <v>15174</v>
+        <v>15238</v>
       </c>
       <c r="D386" s="2">
-        <v>15680</v>
+        <v>15658</v>
       </c>
       <c r="E386" s="2">
-        <v>14893</v>
+        <v>14889</v>
       </c>
       <c r="F386" s="2">
-        <v>14663</v>
+        <v>14699</v>
       </c>
       <c r="G386" s="2">
-        <v>15106</v>
+        <v>15091</v>
       </c>
       <c r="H386" s="3">
         <v>1.04</v>
@@ -17599,28 +17613,28 @@
         <v>397</v>
       </c>
       <c r="B387" s="2">
-        <v>18814</v>
+        <v>18843</v>
       </c>
       <c r="C387" s="2">
-        <v>18561</v>
+        <v>18520</v>
       </c>
       <c r="D387" s="2">
-        <v>19135</v>
+        <v>19227</v>
       </c>
       <c r="E387" s="2">
-        <v>16028</v>
+        <v>16029</v>
       </c>
       <c r="F387" s="2">
-        <v>15789</v>
+        <v>15800</v>
       </c>
       <c r="G387" s="2">
-        <v>16283</v>
+        <v>16285</v>
       </c>
       <c r="H387" s="3">
         <v>1.08</v>
       </c>
       <c r="I387" s="3">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="J387" s="3">
         <v>1.0900000000000001</v>
@@ -17640,22 +17654,22 @@
         <v>398</v>
       </c>
       <c r="B388" s="2">
-        <v>18588</v>
+        <v>18608</v>
       </c>
       <c r="C388" s="2">
-        <v>18283</v>
+        <v>18315</v>
       </c>
       <c r="D388" s="2">
-        <v>18873</v>
+        <v>18924</v>
       </c>
       <c r="E388" s="2">
-        <v>16961</v>
+        <v>16972</v>
       </c>
       <c r="F388" s="2">
-        <v>16696</v>
+        <v>16715</v>
       </c>
       <c r="G388" s="2">
-        <v>17239</v>
+        <v>17254</v>
       </c>
       <c r="H388" s="3">
         <v>1.1499999999999999</v>
@@ -17670,7 +17684,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="L388" s="3">
-        <v>1.1200000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="M388" s="3">
         <v>1.1399999999999999</v>
@@ -17681,28 +17695,28 @@
         <v>399</v>
       </c>
       <c r="B389" s="2">
-        <v>17880</v>
+        <v>17952</v>
       </c>
       <c r="C389" s="2">
-        <v>17573</v>
+        <v>17610</v>
       </c>
       <c r="D389" s="2">
-        <v>18257</v>
+        <v>18301</v>
       </c>
       <c r="E389" s="2">
-        <v>17674</v>
+        <v>17709</v>
       </c>
       <c r="F389" s="2">
-        <v>17398</v>
+        <v>17421</v>
       </c>
       <c r="G389" s="2">
-        <v>17986</v>
+        <v>18028</v>
       </c>
       <c r="H389" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="I389" s="3">
         <v>1.19</v>
-      </c>
-      <c r="I389" s="3">
-        <v>1.18</v>
       </c>
       <c r="J389" s="3">
         <v>1.21</v>
@@ -17722,34 +17736,34 @@
         <v>400</v>
       </c>
       <c r="B390" s="2">
-        <v>16582</v>
+        <v>16557</v>
       </c>
       <c r="C390" s="2">
-        <v>16183</v>
+        <v>16256</v>
       </c>
       <c r="D390" s="2">
-        <v>16943</v>
+        <v>16933</v>
       </c>
       <c r="E390" s="2">
-        <v>17966</v>
+        <v>17990</v>
       </c>
       <c r="F390" s="2">
-        <v>17650</v>
+        <v>17675</v>
       </c>
       <c r="G390" s="2">
-        <v>18302</v>
+        <v>18346</v>
       </c>
       <c r="H390" s="3">
         <v>1.21</v>
       </c>
       <c r="I390" s="3">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="J390" s="3">
         <v>1.22</v>
       </c>
       <c r="K390" s="3">
-        <v>1.0900000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L390" s="3">
         <v>1.0900000000000001</v>
@@ -17763,22 +17777,22 @@
         <v>401</v>
       </c>
       <c r="B391" s="2">
-        <v>16294</v>
+        <v>16252</v>
       </c>
       <c r="C391" s="2">
-        <v>15832</v>
+        <v>15899</v>
       </c>
       <c r="D391" s="2">
-        <v>16718</v>
+        <v>16563</v>
       </c>
       <c r="E391" s="2">
-        <v>17336</v>
+        <v>17342</v>
       </c>
       <c r="F391" s="2">
-        <v>16968</v>
+        <v>17020</v>
       </c>
       <c r="G391" s="2">
-        <v>17698</v>
+        <v>17680</v>
       </c>
       <c r="H391" s="3">
         <v>1.08</v>
@@ -17804,22 +17818,22 @@
         <v>402</v>
       </c>
       <c r="B392" s="2">
-        <v>15195</v>
+        <v>15236</v>
       </c>
       <c r="C392" s="2">
-        <v>14677</v>
+        <v>14834</v>
       </c>
       <c r="D392" s="2">
-        <v>15640</v>
+        <v>15705</v>
       </c>
       <c r="E392" s="2">
-        <v>16488</v>
+        <v>16499</v>
       </c>
       <c r="F392" s="2">
-        <v>16066</v>
+        <v>16150</v>
       </c>
       <c r="G392" s="2">
-        <v>16889</v>
+        <v>16876</v>
       </c>
       <c r="H392" s="3">
         <v>0.97</v>
@@ -17845,22 +17859,22 @@
         <v>403</v>
       </c>
       <c r="B393" s="2">
-        <v>14804</v>
+        <v>14803</v>
       </c>
       <c r="C393" s="2">
-        <v>14339</v>
+        <v>14283</v>
       </c>
       <c r="D393" s="2">
-        <v>15370</v>
+        <v>15334</v>
       </c>
       <c r="E393" s="2">
-        <v>15719</v>
+        <v>15712</v>
       </c>
       <c r="F393" s="2">
-        <v>15258</v>
+        <v>15318</v>
       </c>
       <c r="G393" s="2">
-        <v>16167</v>
+        <v>16134</v>
       </c>
       <c r="H393" s="3">
         <v>0.89</v>
@@ -17886,25 +17900,25 @@
         <v>404</v>
       </c>
       <c r="B394" s="2">
-        <v>18124</v>
+        <v>18089</v>
       </c>
       <c r="C394" s="2">
-        <v>17419</v>
+        <v>17408</v>
       </c>
       <c r="D394" s="2">
-        <v>18925</v>
+        <v>18994</v>
       </c>
       <c r="E394" s="2">
-        <v>16104</v>
+        <v>16095</v>
       </c>
       <c r="F394" s="2">
-        <v>15567</v>
+        <v>15606</v>
       </c>
       <c r="G394" s="2">
-        <v>16663</v>
+        <v>16649</v>
       </c>
       <c r="H394" s="3">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="I394" s="3">
         <v>0.88</v>
@@ -17916,7 +17930,7 @@
         <v>0.98</v>
       </c>
       <c r="L394" s="3">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="M394" s="3">
         <v>0.99</v>
@@ -17927,22 +17941,22 @@
         <v>405</v>
       </c>
       <c r="B395" s="2">
-        <v>16971</v>
+        <v>16967</v>
       </c>
       <c r="C395" s="2">
-        <v>16098</v>
+        <v>16275</v>
       </c>
       <c r="D395" s="2">
-        <v>17668</v>
+        <v>17719</v>
       </c>
       <c r="E395" s="2">
-        <v>16273</v>
+        <v>16274</v>
       </c>
       <c r="F395" s="2">
-        <v>15633</v>
+        <v>15700</v>
       </c>
       <c r="G395" s="2">
-        <v>16901</v>
+        <v>16938</v>
       </c>
       <c r="H395" s="3">
         <v>0.94</v>
@@ -17951,13 +17965,13 @@
         <v>0.92</v>
       </c>
       <c r="J395" s="3">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="K395" s="3">
         <v>0.96</v>
       </c>
       <c r="L395" s="3">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="M395" s="3">
         <v>0.97</v>
@@ -17968,31 +17982,31 @@
         <v>406</v>
       </c>
       <c r="B396" s="2">
-        <v>15800</v>
+        <v>15728</v>
       </c>
       <c r="C396" s="2">
-        <v>14771</v>
+        <v>14986</v>
       </c>
       <c r="D396" s="2">
-        <v>16767</v>
+        <v>16488</v>
       </c>
       <c r="E396" s="2">
-        <v>16425</v>
+        <v>16397</v>
       </c>
       <c r="F396" s="2">
-        <v>15657</v>
+        <v>15738</v>
       </c>
       <c r="G396" s="2">
-        <v>17182</v>
+        <v>17134</v>
       </c>
       <c r="H396" s="3">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="I396" s="3">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="J396" s="3">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K396" s="3">
         <v>0.96</v>
@@ -18001,7 +18015,7 @@
         <v>0.94</v>
       </c>
       <c r="M396" s="3">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="397" spans="1:13">
@@ -18009,22 +18023,22 @@
         <v>407</v>
       </c>
       <c r="B397" s="2">
-        <v>16245</v>
+        <v>16304</v>
       </c>
       <c r="C397" s="2">
-        <v>14904</v>
+        <v>15138</v>
       </c>
       <c r="D397" s="2">
-        <v>17369</v>
+        <v>17262</v>
       </c>
       <c r="E397" s="2">
-        <v>16785</v>
+        <v>16772</v>
       </c>
       <c r="F397" s="2">
-        <v>15798</v>
+        <v>15952</v>
       </c>
       <c r="G397" s="2">
-        <v>17682</v>
+        <v>17616</v>
       </c>
       <c r="H397" s="3">
         <v>1.07</v>
@@ -18033,13 +18047,13 @@
         <v>1.04</v>
       </c>
       <c r="J397" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="K397" s="3">
         <v>0.95</v>
       </c>
       <c r="L397" s="3">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="M397" s="3">
         <v>0.97</v>
@@ -18050,22 +18064,22 @@
         <v>408</v>
       </c>
       <c r="B398" s="2">
-        <v>14880</v>
+        <v>14911</v>
       </c>
       <c r="C398" s="2">
-        <v>13698</v>
+        <v>13743</v>
       </c>
       <c r="D398" s="2">
-        <v>16165</v>
+        <v>16054</v>
       </c>
       <c r="E398" s="2">
-        <v>15974</v>
+        <v>15978</v>
       </c>
       <c r="F398" s="2">
-        <v>14868</v>
+        <v>15035</v>
       </c>
       <c r="G398" s="2">
-        <v>16992</v>
+        <v>16881</v>
       </c>
       <c r="H398" s="3">
         <v>0.99</v>
@@ -18074,7 +18088,7 @@
         <v>0.96</v>
       </c>
       <c r="J398" s="3">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K398" s="3">
         <v>0.96</v>
@@ -18083,7 +18097,7 @@
         <v>0.94</v>
       </c>
       <c r="M398" s="3">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="399" spans="1:13">
@@ -18091,37 +18105,37 @@
         <v>409</v>
       </c>
       <c r="B399" s="2">
-        <v>14335</v>
+        <v>14268</v>
       </c>
       <c r="C399" s="2">
-        <v>12586</v>
+        <v>12866</v>
       </c>
       <c r="D399" s="2">
-        <v>16534</v>
+        <v>15538</v>
       </c>
       <c r="E399" s="2">
-        <v>15315</v>
+        <v>15303</v>
       </c>
       <c r="F399" s="2">
-        <v>13990</v>
+        <v>14183</v>
       </c>
       <c r="G399" s="2">
-        <v>16709</v>
+        <v>16335</v>
       </c>
       <c r="H399" s="3">
         <v>0.94</v>
       </c>
       <c r="I399" s="3">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="J399" s="3">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="K399" s="3">
         <v>0.97</v>
       </c>
       <c r="L399" s="3">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="M399" s="3">
         <v>1</v>
@@ -18132,40 +18146,40 @@
         <v>410</v>
       </c>
       <c r="B400" s="2">
-        <v>14453</v>
+        <v>14475</v>
       </c>
       <c r="C400" s="2">
-        <v>11925</v>
+        <v>12470</v>
       </c>
       <c r="D400" s="2">
-        <v>16921</v>
+        <v>16429</v>
       </c>
       <c r="E400" s="2">
-        <v>14979</v>
+        <v>14990</v>
       </c>
       <c r="F400" s="2">
-        <v>13278</v>
+        <v>13554</v>
       </c>
       <c r="G400" s="2">
-        <v>16747</v>
+        <v>16321</v>
       </c>
       <c r="H400" s="3">
         <v>0.91</v>
       </c>
       <c r="I400" s="3">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="J400" s="3">
         <v>0.96</v>
       </c>
       <c r="K400" s="3">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="L400" s="3">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="M400" s="3">
-        <v>1.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:13">
@@ -18173,40 +18187,40 @@
         <v>411</v>
       </c>
       <c r="B401" s="2">
-        <v>16910</v>
+        <v>16321</v>
       </c>
       <c r="C401" s="2">
-        <v>13544</v>
+        <v>13918</v>
       </c>
       <c r="D401" s="2">
-        <v>20068</v>
+        <v>18152</v>
       </c>
       <c r="E401" s="2">
-        <v>15145</v>
+        <v>14994</v>
       </c>
       <c r="F401" s="2">
-        <v>12938</v>
+        <v>13249</v>
       </c>
       <c r="G401" s="2">
-        <v>17422</v>
+        <v>16543</v>
       </c>
       <c r="H401" s="3">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="I401" s="3">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="J401" s="3">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="K401" s="3">
         <v>1</v>
       </c>
       <c r="L401" s="3">
-        <v>0.94</v>
+        <v>0.96</v>
       </c>
       <c r="M401" s="3">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="402" spans="1:13">
@@ -18214,40 +18228,40 @@
         <v>412</v>
       </c>
       <c r="B402" s="2">
-        <v>19585</v>
+        <v>19551</v>
       </c>
       <c r="C402" s="2">
-        <v>14912</v>
+        <v>16062</v>
       </c>
       <c r="D402" s="2">
-        <v>25092</v>
+        <v>23710</v>
       </c>
       <c r="E402" s="2">
-        <v>16321</v>
+        <v>16154</v>
       </c>
       <c r="F402" s="2">
-        <v>13242</v>
+        <v>13829</v>
       </c>
       <c r="G402" s="2">
-        <v>19654</v>
+        <v>18457</v>
       </c>
       <c r="H402" s="3">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="I402" s="3">
-        <v>0.91</v>
+        <v>0.94</v>
       </c>
       <c r="J402" s="3">
-        <v>1.1299999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K402" s="3">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="L402" s="3">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="M402" s="3">
-        <v>1.1399999999999999</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="403" spans="1:13">
@@ -18255,40 +18269,40 @@
         <v>413</v>
       </c>
       <c r="B403" s="2">
-        <v>21314</v>
+        <v>20038</v>
       </c>
       <c r="C403" s="2">
-        <v>14936</v>
+        <v>14359</v>
       </c>
       <c r="D403" s="2">
-        <v>28267</v>
+        <v>24261</v>
       </c>
       <c r="E403" s="2">
-        <v>18066</v>
+        <v>17596</v>
       </c>
       <c r="F403" s="2">
-        <v>13829</v>
+        <v>14202</v>
       </c>
       <c r="G403" s="2">
-        <v>22587</v>
+        <v>20638</v>
       </c>
       <c r="H403" s="3">
-        <v>1.18</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I403" s="3">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="J403" s="3">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="K403" s="3">
-        <v>1.0900000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="L403" s="3">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="M403" s="3">
-        <v>1.2</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="404" spans="1:13">
@@ -18296,44 +18310,85 @@
         <v>414</v>
       </c>
       <c r="B404" s="2">
-        <v>19693</v>
+        <v>18408</v>
       </c>
       <c r="C404" s="2">
-        <v>12173</v>
+        <v>10749</v>
       </c>
       <c r="D404" s="2">
-        <v>27973</v>
+        <v>24300</v>
       </c>
       <c r="E404" s="2">
-        <v>19376</v>
+        <v>18580</v>
       </c>
       <c r="F404" s="2">
-        <v>13891</v>
+        <v>13772</v>
       </c>
       <c r="G404" s="2">
-        <v>25350</v>
+        <v>22606</v>
       </c>
       <c r="H404" s="3">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="I404" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="J404" s="3">
-        <v>1.48</v>
-      </c>
-      <c r="K404" s="3" t="s">
+        <v>1.43</v>
+      </c>
+      <c r="K404" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="L404" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="M404" s="3">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="405" spans="1:13">
+      <c r="A405" t="s">
+        <v>415</v>
+      </c>
+      <c r="B405" s="2">
+        <v>14597</v>
+      </c>
+      <c r="C405" s="2">
+        <v>8973</v>
+      </c>
+      <c r="D405" s="2">
+        <v>20035</v>
+      </c>
+      <c r="E405" s="2">
+        <v>18149</v>
+      </c>
+      <c r="F405" s="2">
+        <v>12536</v>
+      </c>
+      <c r="G405" s="2">
+        <v>23077</v>
+      </c>
+      <c r="H405" s="3">
+        <v>1.21</v>
+      </c>
+      <c r="I405" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="J405" s="3">
+        <v>1.39</v>
+      </c>
+      <c r="K405" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="L404" s="3" t="s">
+      <c r="L405" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="M404" s="3" t="s">
+      <c r="M405" s="3" t="s">
         <v>420</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/rki_rwert_excel.xlsx
+++ b/data/rki_rwert_excel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAAC9FD-DD11-4103-8567-FC9A3F501811}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734B81DC-68D9-452D-B243-D6C449C2E7FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="430">
   <si>
     <t>Erläuterung</t>
   </si>
@@ -27,7 +27,7 @@
     <t>Ergebnisse des Nowcastings und der Schätzung der Reproduktionszahl R</t>
   </si>
   <si>
-    <t>Datenstand: 2021-04-13, 00:00 Uhr</t>
+    <t>Datenstand: 2021-04-14, 00:00 Uhr</t>
   </si>
   <si>
     <t>Die Ergebnisse des Nowcastings, also die Schätzung der Anzahl von COVID-19 Neuerkrankungen wird dargestellt mit einem gleitenden 4-Tages-Mittelwert.</t>
@@ -36,7 +36,7 @@
     <t>Dabei wird jeder Wert mit den Werten der 3 vorhergehenden Tage gemittelt.</t>
   </si>
   <si>
-    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 2021-04-13 dargestellten Nowcasting-Kurve.</t>
+    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 2021-04-14 dargestellten Nowcasting-Kurve.</t>
   </si>
   <si>
     <t>Der letzte Schätzwert der Reproduktionszahl R wird ebenfalls im gleichen Lagebericht erwähnt.</t>
@@ -1266,6 +1266,9 @@
     <t>09.04.2021</t>
   </si>
   <si>
+    <t>10.04.2021</t>
+  </si>
+  <si>
     <t>Punktschätzer der Anzahl Neuerkrankungen (ohne Glättung)</t>
   </si>
   <si>
@@ -1278,9 +1281,18 @@
     <t>Obere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen</t>
   </si>
   <si>
+    <t>Punktschätzer der 4-Tage R-Wert</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
+    <t>Untere Grenze des 95%-Prädiktionsintervalls der 4-Tage R-Wert</t>
+  </si>
+  <si>
+    <t>Obere Grenze des 95%-Prädiktionsintervalls der 4-Tage R-Wert</t>
+  </si>
+  <si>
     <t>Punktschätzer des 7-Tage-R Wertes</t>
   </si>
   <si>
@@ -1293,16 +1305,7 @@
     <t>Untere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glättung)</t>
   </si>
   <si>
-    <t>Obere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glätttung)</t>
-  </si>
-  <si>
-    <t>Punktschätzer des 4-Tage R-Wertes</t>
-  </si>
-  <si>
-    <t>Untere Grenze des 95%-Prädiktionsintervalls des 4-Tage R-Wertes</t>
-  </si>
-  <si>
-    <t>Obere Grenze des 95%-Prädiktionsintervalls des 4-Tage R-Wertes</t>
+    <t>Obere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glättung)</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1341,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1660,7 +1663,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1760,67 +1763,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M405"/>
+  <dimension ref="A1:M406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:M405"/>
+      <selection activeCell="H6" sqref="H6:M406"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1"/>
-    <col min="12" max="13" width="19.140625" customWidth="1"/>
+    <col min="1" max="13" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="94.5" customHeight="1">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="90">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1846,22 +1838,22 @@
         <v>238</v>
       </c>
       <c r="H2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="J2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1887,22 +1879,22 @@
         <v>276</v>
       </c>
       <c r="H3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="J3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1928,22 +1920,22 @@
         <v>342</v>
       </c>
       <c r="H4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="J4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1969,22 +1961,22 @@
         <v>412</v>
       </c>
       <c r="H5" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I5" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="J5" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K5" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L5" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M5" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -15894,10 +15886,10 @@
         <v>8136</v>
       </c>
       <c r="C345" s="2">
-        <v>8012</v>
+        <v>8011</v>
       </c>
       <c r="D345" s="2">
-        <v>8249</v>
+        <v>8246</v>
       </c>
       <c r="E345" s="2">
         <v>7208</v>
@@ -15906,7 +15898,7 @@
         <v>7098</v>
       </c>
       <c r="G345" s="2">
-        <v>7314</v>
+        <v>7313</v>
       </c>
       <c r="H345" s="3">
         <v>0.8</v>
@@ -15935,19 +15927,19 @@
         <v>7684</v>
       </c>
       <c r="C346" s="2">
-        <v>7585</v>
+        <v>7588</v>
       </c>
       <c r="D346" s="2">
-        <v>7788</v>
+        <v>7784</v>
       </c>
       <c r="E346" s="2">
         <v>7248</v>
       </c>
       <c r="F346" s="2">
-        <v>7146</v>
+        <v>7147</v>
       </c>
       <c r="G346" s="2">
-        <v>7351</v>
+        <v>7350</v>
       </c>
       <c r="H346" s="3">
         <v>0.87</v>
@@ -15976,10 +15968,10 @@
         <v>7430</v>
       </c>
       <c r="C347" s="2">
-        <v>7328</v>
+        <v>7327</v>
       </c>
       <c r="D347" s="2">
-        <v>7518</v>
+        <v>7520</v>
       </c>
       <c r="E347" s="2">
         <v>7421</v>
@@ -15988,7 +15980,7 @@
         <v>7318</v>
       </c>
       <c r="G347" s="2">
-        <v>7522</v>
+        <v>7521</v>
       </c>
       <c r="H347" s="3">
         <v>0.97</v>
@@ -16014,22 +16006,22 @@
         <v>358</v>
       </c>
       <c r="B348" s="2">
-        <v>6691</v>
+        <v>6692</v>
       </c>
       <c r="C348" s="2">
         <v>6598</v>
       </c>
       <c r="D348" s="2">
-        <v>6804</v>
+        <v>6807</v>
       </c>
       <c r="E348" s="2">
-        <v>7485</v>
+        <v>7486</v>
       </c>
       <c r="F348" s="2">
-        <v>7380</v>
+        <v>7381</v>
       </c>
       <c r="G348" s="2">
-        <v>7590</v>
+        <v>7589</v>
       </c>
       <c r="H348" s="3">
         <v>1.05</v>
@@ -16055,19 +16047,19 @@
         <v>359</v>
       </c>
       <c r="B349" s="2">
-        <v>6907</v>
+        <v>6908</v>
       </c>
       <c r="C349" s="2">
-        <v>6809</v>
+        <v>6815</v>
       </c>
       <c r="D349" s="2">
-        <v>7023</v>
+        <v>7024</v>
       </c>
       <c r="E349" s="2">
-        <v>7178</v>
+        <v>7179</v>
       </c>
       <c r="F349" s="2">
-        <v>7080</v>
+        <v>7082</v>
       </c>
       <c r="G349" s="2">
         <v>7283</v>
@@ -16099,19 +16091,19 @@
         <v>6423</v>
       </c>
       <c r="C350" s="2">
-        <v>6321</v>
+        <v>6324</v>
       </c>
       <c r="D350" s="2">
-        <v>6538</v>
+        <v>6541</v>
       </c>
       <c r="E350" s="2">
         <v>6863</v>
       </c>
       <c r="F350" s="2">
-        <v>6764</v>
+        <v>6766</v>
       </c>
       <c r="G350" s="2">
-        <v>6971</v>
+        <v>6973</v>
       </c>
       <c r="H350" s="3">
         <v>0.95</v>
@@ -16140,19 +16132,19 @@
         <v>6626</v>
       </c>
       <c r="C351" s="2">
-        <v>6543</v>
+        <v>6542</v>
       </c>
       <c r="D351" s="2">
-        <v>6735</v>
+        <v>6739</v>
       </c>
       <c r="E351" s="2">
-        <v>6661</v>
+        <v>6662</v>
       </c>
       <c r="F351" s="2">
-        <v>6567</v>
+        <v>6570</v>
       </c>
       <c r="G351" s="2">
-        <v>6775</v>
+        <v>6777</v>
       </c>
       <c r="H351" s="3">
         <v>0.9</v>
@@ -16181,19 +16173,19 @@
         <v>8545</v>
       </c>
       <c r="C352" s="2">
-        <v>8434</v>
+        <v>8437</v>
       </c>
       <c r="D352" s="2">
-        <v>8652</v>
+        <v>8653</v>
       </c>
       <c r="E352" s="2">
-        <v>7125</v>
+        <v>7126</v>
       </c>
       <c r="F352" s="2">
-        <v>7027</v>
+        <v>7029</v>
       </c>
       <c r="G352" s="2">
-        <v>7237</v>
+        <v>7239</v>
       </c>
       <c r="H352" s="3">
         <v>0.95</v>
@@ -16222,10 +16214,10 @@
         <v>8146</v>
       </c>
       <c r="C353" s="2">
-        <v>8029</v>
+        <v>8028</v>
       </c>
       <c r="D353" s="2">
-        <v>8285</v>
+        <v>8286</v>
       </c>
       <c r="E353" s="2">
         <v>7435</v>
@@ -16234,13 +16226,13 @@
         <v>7332</v>
       </c>
       <c r="G353" s="2">
-        <v>7552</v>
+        <v>7554</v>
       </c>
       <c r="H353" s="3">
         <v>1.04</v>
       </c>
       <c r="I353" s="3">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="J353" s="3">
         <v>1.05</v>
@@ -16263,19 +16255,19 @@
         <v>8073</v>
       </c>
       <c r="C354" s="2">
-        <v>7946</v>
+        <v>7948</v>
       </c>
       <c r="D354" s="2">
-        <v>8173</v>
+        <v>8171</v>
       </c>
       <c r="E354" s="2">
         <v>7847</v>
       </c>
       <c r="F354" s="2">
-        <v>7738</v>
+        <v>7739</v>
       </c>
       <c r="G354" s="2">
-        <v>7961</v>
+        <v>7962</v>
       </c>
       <c r="H354" s="3">
         <v>1.1399999999999999</v>
@@ -16301,19 +16293,19 @@
         <v>365</v>
       </c>
       <c r="B355" s="2">
-        <v>7719</v>
+        <v>7720</v>
       </c>
       <c r="C355" s="2">
-        <v>7596</v>
+        <v>7595</v>
       </c>
       <c r="D355" s="2">
-        <v>7830</v>
+        <v>7831</v>
       </c>
       <c r="E355" s="2">
         <v>8121</v>
       </c>
       <c r="F355" s="2">
-        <v>8001</v>
+        <v>8002</v>
       </c>
       <c r="G355" s="2">
         <v>8235</v>
@@ -16345,19 +16337,19 @@
         <v>7652</v>
       </c>
       <c r="C356" s="2">
-        <v>7535</v>
+        <v>7537</v>
       </c>
       <c r="D356" s="2">
-        <v>7755</v>
+        <v>7762</v>
       </c>
       <c r="E356" s="2">
         <v>7897</v>
       </c>
       <c r="F356" s="2">
-        <v>7776</v>
+        <v>7777</v>
       </c>
       <c r="G356" s="2">
-        <v>8010</v>
+        <v>8012</v>
       </c>
       <c r="H356" s="3">
         <v>1.1100000000000001</v>
@@ -16383,13 +16375,13 @@
         <v>367</v>
       </c>
       <c r="B357" s="2">
-        <v>7382</v>
+        <v>7383</v>
       </c>
       <c r="C357" s="2">
         <v>7278</v>
       </c>
       <c r="D357" s="2">
-        <v>7490</v>
+        <v>7489</v>
       </c>
       <c r="E357" s="2">
         <v>7707</v>
@@ -16398,7 +16390,7 @@
         <v>7589</v>
       </c>
       <c r="G357" s="2">
-        <v>7812</v>
+        <v>7813</v>
       </c>
       <c r="H357" s="3">
         <v>1.04</v>
@@ -16424,22 +16416,22 @@
         <v>368</v>
       </c>
       <c r="B358" s="2">
-        <v>7126</v>
+        <v>7125</v>
       </c>
       <c r="C358" s="2">
-        <v>7027</v>
+        <v>7022</v>
       </c>
       <c r="D358" s="2">
-        <v>7233</v>
+        <v>7234</v>
       </c>
       <c r="E358" s="2">
         <v>7470</v>
       </c>
       <c r="F358" s="2">
-        <v>7359</v>
+        <v>7358</v>
       </c>
       <c r="G358" s="2">
-        <v>7577</v>
+        <v>7579</v>
       </c>
       <c r="H358" s="3">
         <v>0.95</v>
@@ -16471,13 +16463,13 @@
         <v>8829</v>
       </c>
       <c r="D359" s="2">
-        <v>9068</v>
+        <v>9059</v>
       </c>
       <c r="E359" s="2">
         <v>7779</v>
       </c>
       <c r="F359" s="2">
-        <v>7667</v>
+        <v>7666</v>
       </c>
       <c r="G359" s="2">
         <v>7886</v>
@@ -16506,22 +16498,22 @@
         <v>370</v>
       </c>
       <c r="B360" s="2">
-        <v>8499</v>
+        <v>8501</v>
       </c>
       <c r="C360" s="2">
-        <v>8392</v>
+        <v>8390</v>
       </c>
       <c r="D360" s="2">
-        <v>8604</v>
+        <v>8596</v>
       </c>
       <c r="E360" s="2">
-        <v>7991</v>
+        <v>7992</v>
       </c>
       <c r="F360" s="2">
-        <v>7881</v>
+        <v>7880</v>
       </c>
       <c r="G360" s="2">
-        <v>8098</v>
+        <v>8094</v>
       </c>
       <c r="H360" s="3">
         <v>1.01</v>
@@ -16547,13 +16539,13 @@
         <v>371</v>
       </c>
       <c r="B361" s="2">
-        <v>8089</v>
+        <v>8088</v>
       </c>
       <c r="C361" s="2">
-        <v>7984</v>
+        <v>7990</v>
       </c>
       <c r="D361" s="2">
-        <v>8205</v>
+        <v>8204</v>
       </c>
       <c r="E361" s="2">
         <v>8168</v>
@@ -16562,7 +16554,7 @@
         <v>8058</v>
       </c>
       <c r="G361" s="2">
-        <v>8277</v>
+        <v>8273</v>
       </c>
       <c r="H361" s="3">
         <v>1.06</v>
@@ -16588,10 +16580,10 @@
         <v>372</v>
       </c>
       <c r="B362" s="2">
-        <v>7658</v>
+        <v>7657</v>
       </c>
       <c r="C362" s="2">
-        <v>7546</v>
+        <v>7535</v>
       </c>
       <c r="D362" s="2">
         <v>7774</v>
@@ -16600,10 +16592,10 @@
         <v>8301</v>
       </c>
       <c r="F362" s="2">
-        <v>8188</v>
+        <v>8186</v>
       </c>
       <c r="G362" s="2">
-        <v>8412</v>
+        <v>8408</v>
       </c>
       <c r="H362" s="3">
         <v>1.1100000000000001</v>
@@ -16629,22 +16621,22 @@
         <v>373</v>
       </c>
       <c r="B363" s="2">
-        <v>7940</v>
+        <v>7939</v>
       </c>
       <c r="C363" s="2">
-        <v>7844</v>
+        <v>7836</v>
       </c>
       <c r="D363" s="2">
         <v>8050</v>
       </c>
       <c r="E363" s="2">
-        <v>8047</v>
+        <v>8046</v>
       </c>
       <c r="F363" s="2">
-        <v>7941</v>
+        <v>7938</v>
       </c>
       <c r="G363" s="2">
-        <v>8158</v>
+        <v>8156</v>
       </c>
       <c r="H363" s="3">
         <v>1.03</v>
@@ -16670,22 +16662,22 @@
         <v>374</v>
       </c>
       <c r="B364" s="2">
-        <v>7182</v>
+        <v>7185</v>
       </c>
       <c r="C364" s="2">
-        <v>7082</v>
+        <v>7083</v>
       </c>
       <c r="D364" s="2">
-        <v>7288</v>
+        <v>7282</v>
       </c>
       <c r="E364" s="2">
         <v>7717</v>
       </c>
       <c r="F364" s="2">
-        <v>7614</v>
+        <v>7611</v>
       </c>
       <c r="G364" s="2">
-        <v>7829</v>
+        <v>7827</v>
       </c>
       <c r="H364" s="3">
         <v>0.97</v>
@@ -16711,22 +16703,22 @@
         <v>375</v>
       </c>
       <c r="B365" s="2">
-        <v>7350</v>
+        <v>7351</v>
       </c>
       <c r="C365" s="2">
-        <v>7227</v>
+        <v>7234</v>
       </c>
       <c r="D365" s="2">
-        <v>7453</v>
+        <v>7444</v>
       </c>
       <c r="E365" s="2">
-        <v>7532</v>
+        <v>7533</v>
       </c>
       <c r="F365" s="2">
-        <v>7424</v>
+        <v>7422</v>
       </c>
       <c r="G365" s="2">
-        <v>7641</v>
+        <v>7637</v>
       </c>
       <c r="H365" s="3">
         <v>0.92</v>
@@ -16752,22 +16744,22 @@
         <v>376</v>
       </c>
       <c r="B366" s="2">
-        <v>9525</v>
+        <v>9526</v>
       </c>
       <c r="C366" s="2">
         <v>9416</v>
       </c>
       <c r="D366" s="2">
-        <v>9644</v>
+        <v>9631</v>
       </c>
       <c r="E366" s="2">
-        <v>7999</v>
+        <v>8000</v>
       </c>
       <c r="F366" s="2">
         <v>7892</v>
       </c>
       <c r="G366" s="2">
-        <v>8108</v>
+        <v>8102</v>
       </c>
       <c r="H366" s="3">
         <v>0.96</v>
@@ -16793,22 +16785,22 @@
         <v>377</v>
       </c>
       <c r="B367" s="2">
-        <v>8913</v>
+        <v>8911</v>
       </c>
       <c r="C367" s="2">
-        <v>8817</v>
+        <v>8794</v>
       </c>
       <c r="D367" s="2">
-        <v>9029</v>
+        <v>9038</v>
       </c>
       <c r="E367" s="2">
         <v>8243</v>
       </c>
       <c r="F367" s="2">
-        <v>8135</v>
+        <v>8132</v>
       </c>
       <c r="G367" s="2">
-        <v>8353</v>
+        <v>8349</v>
       </c>
       <c r="H367" s="3">
         <v>1.02</v>
@@ -16834,22 +16826,22 @@
         <v>378</v>
       </c>
       <c r="B368" s="2">
-        <v>9001</v>
+        <v>9000</v>
       </c>
       <c r="C368" s="2">
-        <v>8875</v>
+        <v>8860</v>
       </c>
       <c r="D368" s="2">
-        <v>9107</v>
+        <v>9086</v>
       </c>
       <c r="E368" s="2">
         <v>8697</v>
       </c>
       <c r="F368" s="2">
-        <v>8583</v>
+        <v>8576</v>
       </c>
       <c r="G368" s="2">
-        <v>8808</v>
+        <v>8800</v>
       </c>
       <c r="H368" s="3">
         <v>1.1299999999999999</v>
@@ -16875,22 +16867,22 @@
         <v>379</v>
       </c>
       <c r="B369" s="2">
-        <v>8659</v>
+        <v>8651</v>
       </c>
       <c r="C369" s="2">
-        <v>8545</v>
+        <v>8541</v>
       </c>
       <c r="D369" s="2">
-        <v>8764</v>
+        <v>8768</v>
       </c>
       <c r="E369" s="2">
-        <v>9025</v>
+        <v>9022</v>
       </c>
       <c r="F369" s="2">
-        <v>8913</v>
+        <v>8902</v>
       </c>
       <c r="G369" s="2">
-        <v>9136</v>
+        <v>9131</v>
       </c>
       <c r="H369" s="3">
         <v>1.2</v>
@@ -16919,19 +16911,19 @@
         <v>9026</v>
       </c>
       <c r="C370" s="2">
-        <v>8924</v>
+        <v>8913</v>
       </c>
       <c r="D370" s="2">
-        <v>9136</v>
+        <v>9149</v>
       </c>
       <c r="E370" s="2">
-        <v>8900</v>
+        <v>8897</v>
       </c>
       <c r="F370" s="2">
-        <v>8790</v>
+        <v>8777</v>
       </c>
       <c r="G370" s="2">
-        <v>9009</v>
+        <v>9010</v>
       </c>
       <c r="H370" s="3">
         <v>1.1100000000000001</v>
@@ -16957,22 +16949,22 @@
         <v>381</v>
       </c>
       <c r="B371" s="2">
-        <v>8901</v>
+        <v>8892</v>
       </c>
       <c r="C371" s="2">
-        <v>8776</v>
+        <v>8779</v>
       </c>
       <c r="D371" s="2">
-        <v>9024</v>
+        <v>9022</v>
       </c>
       <c r="E371" s="2">
-        <v>8897</v>
+        <v>8892</v>
       </c>
       <c r="F371" s="2">
-        <v>8780</v>
+        <v>8773</v>
       </c>
       <c r="G371" s="2">
-        <v>9008</v>
+        <v>9006</v>
       </c>
       <c r="H371" s="3">
         <v>1.08</v>
@@ -17001,19 +16993,19 @@
         <v>9037</v>
       </c>
       <c r="C372" s="2">
-        <v>8926</v>
+        <v>8903</v>
       </c>
       <c r="D372" s="2">
-        <v>9148</v>
+        <v>9163</v>
       </c>
       <c r="E372" s="2">
-        <v>8906</v>
+        <v>8902</v>
       </c>
       <c r="F372" s="2">
-        <v>8793</v>
+        <v>8784</v>
       </c>
       <c r="G372" s="2">
-        <v>9018</v>
+        <v>9025</v>
       </c>
       <c r="H372" s="3">
         <v>1.02</v>
@@ -17039,22 +17031,22 @@
         <v>383</v>
       </c>
       <c r="B373" s="2">
-        <v>11800</v>
+        <v>11781</v>
       </c>
       <c r="C373" s="2">
-        <v>11671</v>
+        <v>11636</v>
       </c>
       <c r="D373" s="2">
-        <v>11925</v>
+        <v>11935</v>
       </c>
       <c r="E373" s="2">
-        <v>9691</v>
+        <v>9684</v>
       </c>
       <c r="F373" s="2">
-        <v>9574</v>
+        <v>9558</v>
       </c>
       <c r="G373" s="2">
-        <v>9808</v>
+        <v>9817</v>
       </c>
       <c r="H373" s="3">
         <v>1.07</v>
@@ -17080,22 +17072,22 @@
         <v>384</v>
       </c>
       <c r="B374" s="2">
-        <v>11499</v>
+        <v>11500</v>
       </c>
       <c r="C374" s="2">
-        <v>11361</v>
+        <v>11350</v>
       </c>
       <c r="D374" s="2">
-        <v>11650</v>
+        <v>11668</v>
       </c>
       <c r="E374" s="2">
-        <v>10309</v>
+        <v>10303</v>
       </c>
       <c r="F374" s="2">
-        <v>10183</v>
+        <v>10167</v>
       </c>
       <c r="G374" s="2">
-        <v>10437</v>
+        <v>10447</v>
       </c>
       <c r="H374" s="3">
         <v>1.1599999999999999</v>
@@ -17121,22 +17113,22 @@
         <v>385</v>
       </c>
       <c r="B375" s="2">
-        <v>11706</v>
+        <v>11716</v>
       </c>
       <c r="C375" s="2">
-        <v>11579</v>
+        <v>11588</v>
       </c>
       <c r="D375" s="2">
-        <v>11833</v>
+        <v>11840</v>
       </c>
       <c r="E375" s="2">
-        <v>11010</v>
+        <v>11009</v>
       </c>
       <c r="F375" s="2">
-        <v>10884</v>
+        <v>10869</v>
       </c>
       <c r="G375" s="2">
-        <v>11139</v>
+        <v>11151</v>
       </c>
       <c r="H375" s="3">
         <v>1.24</v>
@@ -17162,19 +17154,19 @@
         <v>386</v>
       </c>
       <c r="B376" s="2">
-        <v>11522</v>
+        <v>11507</v>
       </c>
       <c r="C376" s="2">
-        <v>11370</v>
+        <v>11365</v>
       </c>
       <c r="D376" s="2">
-        <v>11675</v>
+        <v>11643</v>
       </c>
       <c r="E376" s="2">
-        <v>11632</v>
+        <v>11626</v>
       </c>
       <c r="F376" s="2">
-        <v>11495</v>
+        <v>11485</v>
       </c>
       <c r="G376" s="2">
         <v>11771</v>
@@ -17183,7 +17175,7 @@
         <v>1.31</v>
       </c>
       <c r="I376" s="3">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="J376" s="3">
         <v>1.32</v>
@@ -17203,22 +17195,22 @@
         <v>387</v>
       </c>
       <c r="B377" s="2">
-        <v>12062</v>
+        <v>12041</v>
       </c>
       <c r="C377" s="2">
-        <v>11923</v>
+        <v>11898</v>
       </c>
       <c r="D377" s="2">
-        <v>12176</v>
+        <v>12200</v>
       </c>
       <c r="E377" s="2">
-        <v>11697</v>
+        <v>11691</v>
       </c>
       <c r="F377" s="2">
-        <v>11558</v>
+        <v>11550</v>
       </c>
       <c r="G377" s="2">
-        <v>11833</v>
+        <v>11838</v>
       </c>
       <c r="H377" s="3">
         <v>1.21</v>
@@ -17244,22 +17236,22 @@
         <v>388</v>
       </c>
       <c r="B378" s="2">
-        <v>11835</v>
+        <v>11848</v>
       </c>
       <c r="C378" s="2">
-        <v>11707</v>
+        <v>11724</v>
       </c>
       <c r="D378" s="2">
-        <v>11960</v>
+        <v>12001</v>
       </c>
       <c r="E378" s="2">
-        <v>11781</v>
+        <v>11778</v>
       </c>
       <c r="F378" s="2">
         <v>11644</v>
       </c>
       <c r="G378" s="2">
-        <v>11911</v>
+        <v>11921</v>
       </c>
       <c r="H378" s="3">
         <v>1.1399999999999999</v>
@@ -17285,19 +17277,19 @@
         <v>389</v>
       </c>
       <c r="B379" s="2">
-        <v>12125</v>
+        <v>12126</v>
       </c>
       <c r="C379" s="2">
-        <v>11958</v>
+        <v>11964</v>
       </c>
       <c r="D379" s="2">
-        <v>12291</v>
+        <v>12255</v>
       </c>
       <c r="E379" s="2">
-        <v>11886</v>
+        <v>11880</v>
       </c>
       <c r="F379" s="2">
-        <v>11739</v>
+        <v>11738</v>
       </c>
       <c r="G379" s="2">
         <v>12025</v>
@@ -17326,22 +17318,22 @@
         <v>390</v>
       </c>
       <c r="B380" s="2">
-        <v>15421</v>
+        <v>15427</v>
       </c>
       <c r="C380" s="2">
-        <v>15230</v>
+        <v>15284</v>
       </c>
       <c r="D380" s="2">
-        <v>15576</v>
+        <v>15619</v>
       </c>
       <c r="E380" s="2">
-        <v>12861</v>
+        <v>12860</v>
       </c>
       <c r="F380" s="2">
-        <v>12704</v>
+        <v>12717</v>
       </c>
       <c r="G380" s="2">
-        <v>13001</v>
+        <v>13019</v>
       </c>
       <c r="H380" s="3">
         <v>1.1100000000000001</v>
@@ -17367,22 +17359,22 @@
         <v>391</v>
       </c>
       <c r="B381" s="2">
-        <v>14893</v>
+        <v>14878</v>
       </c>
       <c r="C381" s="2">
-        <v>14665</v>
+        <v>14675</v>
       </c>
       <c r="D381" s="2">
-        <v>15118</v>
+        <v>15076</v>
       </c>
       <c r="E381" s="2">
-        <v>13569</v>
+        <v>13570</v>
       </c>
       <c r="F381" s="2">
-        <v>13390</v>
+        <v>13412</v>
       </c>
       <c r="G381" s="2">
-        <v>13736</v>
+        <v>13738</v>
       </c>
       <c r="H381" s="3">
         <v>1.1599999999999999</v>
@@ -17408,22 +17400,22 @@
         <v>392</v>
       </c>
       <c r="B382" s="2">
-        <v>15011</v>
+        <v>15025</v>
       </c>
       <c r="C382" s="2">
-        <v>14828</v>
+        <v>14809</v>
       </c>
       <c r="D382" s="2">
-        <v>15213</v>
+        <v>15219</v>
       </c>
       <c r="E382" s="2">
-        <v>14362</v>
+        <v>14364</v>
       </c>
       <c r="F382" s="2">
-        <v>14170</v>
+        <v>14183</v>
       </c>
       <c r="G382" s="2">
-        <v>14549</v>
+        <v>14542</v>
       </c>
       <c r="H382" s="3">
         <v>1.22</v>
@@ -17449,22 +17441,22 @@
         <v>393</v>
       </c>
       <c r="B383" s="2">
-        <v>14281</v>
+        <v>14277</v>
       </c>
       <c r="C383" s="2">
-        <v>14116</v>
+        <v>14063</v>
       </c>
       <c r="D383" s="2">
-        <v>14450</v>
+        <v>14484</v>
       </c>
       <c r="E383" s="2">
-        <v>14901</v>
+        <v>14902</v>
       </c>
       <c r="F383" s="2">
-        <v>14710</v>
+        <v>14708</v>
       </c>
       <c r="G383" s="2">
-        <v>15089</v>
+        <v>15099</v>
       </c>
       <c r="H383" s="3">
         <v>1.25</v>
@@ -17490,22 +17482,22 @@
         <v>394</v>
       </c>
       <c r="B384" s="2">
-        <v>14838</v>
+        <v>14858</v>
       </c>
       <c r="C384" s="2">
-        <v>14656</v>
+        <v>14637</v>
       </c>
       <c r="D384" s="2">
-        <v>15049</v>
+        <v>15090</v>
       </c>
       <c r="E384" s="2">
-        <v>14755</v>
+        <v>14759</v>
       </c>
       <c r="F384" s="2">
-        <v>14566</v>
+        <v>14546</v>
       </c>
       <c r="G384" s="2">
-        <v>14957</v>
+        <v>14967</v>
       </c>
       <c r="H384" s="3">
         <v>1.1499999999999999</v>
@@ -17531,22 +17523,22 @@
         <v>395</v>
       </c>
       <c r="B385" s="2">
-        <v>15005</v>
+        <v>15031</v>
       </c>
       <c r="C385" s="2">
-        <v>14787</v>
+        <v>14829</v>
       </c>
       <c r="D385" s="2">
-        <v>15208</v>
+        <v>15291</v>
       </c>
       <c r="E385" s="2">
-        <v>14784</v>
+        <v>14798</v>
       </c>
       <c r="F385" s="2">
-        <v>14597</v>
+        <v>14584</v>
       </c>
       <c r="G385" s="2">
-        <v>14980</v>
+        <v>15021</v>
       </c>
       <c r="H385" s="3">
         <v>1.0900000000000001</v>
@@ -17561,7 +17553,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="L385" s="3">
-        <v>1.1200000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="M385" s="3">
         <v>1.1299999999999999</v>
@@ -17572,22 +17564,22 @@
         <v>396</v>
       </c>
       <c r="B386" s="2">
-        <v>15432</v>
+        <v>15426</v>
       </c>
       <c r="C386" s="2">
-        <v>15238</v>
+        <v>15190</v>
       </c>
       <c r="D386" s="2">
-        <v>15658</v>
+        <v>15694</v>
       </c>
       <c r="E386" s="2">
-        <v>14889</v>
+        <v>14898</v>
       </c>
       <c r="F386" s="2">
-        <v>14699</v>
+        <v>14679</v>
       </c>
       <c r="G386" s="2">
-        <v>15091</v>
+        <v>15140</v>
       </c>
       <c r="H386" s="3">
         <v>1.04</v>
@@ -17613,28 +17605,28 @@
         <v>397</v>
       </c>
       <c r="B387" s="2">
-        <v>18843</v>
+        <v>18839</v>
       </c>
       <c r="C387" s="2">
-        <v>18520</v>
+        <v>18587</v>
       </c>
       <c r="D387" s="2">
-        <v>19227</v>
+        <v>19086</v>
       </c>
       <c r="E387" s="2">
-        <v>16029</v>
+        <v>16038</v>
       </c>
       <c r="F387" s="2">
-        <v>15800</v>
+        <v>15810</v>
       </c>
       <c r="G387" s="2">
-        <v>16285</v>
+        <v>16290</v>
       </c>
       <c r="H387" s="3">
         <v>1.08</v>
       </c>
       <c r="I387" s="3">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="J387" s="3">
         <v>1.0900000000000001</v>
@@ -17654,22 +17646,22 @@
         <v>398</v>
       </c>
       <c r="B388" s="2">
-        <v>18608</v>
+        <v>18578</v>
       </c>
       <c r="C388" s="2">
-        <v>18315</v>
+        <v>18242</v>
       </c>
       <c r="D388" s="2">
-        <v>18924</v>
+        <v>18843</v>
       </c>
       <c r="E388" s="2">
-        <v>16972</v>
+        <v>16969</v>
       </c>
       <c r="F388" s="2">
-        <v>16715</v>
+        <v>16712</v>
       </c>
       <c r="G388" s="2">
-        <v>17254</v>
+        <v>17228</v>
       </c>
       <c r="H388" s="3">
         <v>1.1499999999999999</v>
@@ -17695,28 +17687,28 @@
         <v>399</v>
       </c>
       <c r="B389" s="2">
-        <v>17952</v>
+        <v>17921</v>
       </c>
       <c r="C389" s="2">
-        <v>17610</v>
+        <v>17647</v>
       </c>
       <c r="D389" s="2">
-        <v>18301</v>
+        <v>18172</v>
       </c>
       <c r="E389" s="2">
-        <v>17709</v>
+        <v>17691</v>
       </c>
       <c r="F389" s="2">
-        <v>17421</v>
+        <v>17416</v>
       </c>
       <c r="G389" s="2">
-        <v>18028</v>
+        <v>17949</v>
       </c>
       <c r="H389" s="3">
         <v>1.2</v>
       </c>
       <c r="I389" s="3">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="J389" s="3">
         <v>1.21</v>
@@ -17736,22 +17728,22 @@
         <v>400</v>
       </c>
       <c r="B390" s="2">
-        <v>16557</v>
+        <v>16632</v>
       </c>
       <c r="C390" s="2">
-        <v>16256</v>
+        <v>16335</v>
       </c>
       <c r="D390" s="2">
-        <v>16933</v>
+        <v>16944</v>
       </c>
       <c r="E390" s="2">
-        <v>17990</v>
+        <v>17993</v>
       </c>
       <c r="F390" s="2">
-        <v>17675</v>
+        <v>17703</v>
       </c>
       <c r="G390" s="2">
-        <v>18346</v>
+        <v>18261</v>
       </c>
       <c r="H390" s="3">
         <v>1.21</v>
@@ -17777,22 +17769,22 @@
         <v>401</v>
       </c>
       <c r="B391" s="2">
-        <v>16252</v>
+        <v>16295</v>
       </c>
       <c r="C391" s="2">
-        <v>15899</v>
+        <v>15997</v>
       </c>
       <c r="D391" s="2">
-        <v>16563</v>
+        <v>16585</v>
       </c>
       <c r="E391" s="2">
-        <v>17342</v>
+        <v>17357</v>
       </c>
       <c r="F391" s="2">
-        <v>17020</v>
+        <v>17055</v>
       </c>
       <c r="G391" s="2">
-        <v>17680</v>
+        <v>17636</v>
       </c>
       <c r="H391" s="3">
         <v>1.08</v>
@@ -17818,22 +17810,22 @@
         <v>402</v>
       </c>
       <c r="B392" s="2">
-        <v>15236</v>
+        <v>15190</v>
       </c>
       <c r="C392" s="2">
-        <v>14834</v>
+        <v>14750</v>
       </c>
       <c r="D392" s="2">
-        <v>15705</v>
+        <v>15629</v>
       </c>
       <c r="E392" s="2">
-        <v>16499</v>
+        <v>16510</v>
       </c>
       <c r="F392" s="2">
-        <v>16150</v>
+        <v>16182</v>
       </c>
       <c r="G392" s="2">
-        <v>16876</v>
+        <v>16832</v>
       </c>
       <c r="H392" s="3">
         <v>0.97</v>
@@ -17859,28 +17851,28 @@
         <v>403</v>
       </c>
       <c r="B393" s="2">
-        <v>14803</v>
+        <v>14778</v>
       </c>
       <c r="C393" s="2">
-        <v>14283</v>
+        <v>14305</v>
       </c>
       <c r="D393" s="2">
-        <v>15334</v>
+        <v>15190</v>
       </c>
       <c r="E393" s="2">
-        <v>15712</v>
+        <v>15724</v>
       </c>
       <c r="F393" s="2">
-        <v>15318</v>
+        <v>15346</v>
       </c>
       <c r="G393" s="2">
-        <v>16134</v>
+        <v>16087</v>
       </c>
       <c r="H393" s="3">
         <v>0.89</v>
       </c>
       <c r="I393" s="3">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="J393" s="3">
         <v>0.9</v>
@@ -17900,22 +17892,22 @@
         <v>404</v>
       </c>
       <c r="B394" s="2">
-        <v>18089</v>
+        <v>18114</v>
       </c>
       <c r="C394" s="2">
-        <v>17408</v>
+        <v>17414</v>
       </c>
       <c r="D394" s="2">
-        <v>18994</v>
+        <v>18645</v>
       </c>
       <c r="E394" s="2">
-        <v>16095</v>
+        <v>16094</v>
       </c>
       <c r="F394" s="2">
-        <v>15606</v>
+        <v>15616</v>
       </c>
       <c r="G394" s="2">
-        <v>16649</v>
+        <v>16512</v>
       </c>
       <c r="H394" s="3">
         <v>0.89</v>
@@ -17930,7 +17922,7 @@
         <v>0.98</v>
       </c>
       <c r="L394" s="3">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="M394" s="3">
         <v>0.99</v>
@@ -17941,22 +17933,22 @@
         <v>405</v>
       </c>
       <c r="B395" s="2">
-        <v>16967</v>
+        <v>17003</v>
       </c>
       <c r="C395" s="2">
-        <v>16275</v>
+        <v>16334</v>
       </c>
       <c r="D395" s="2">
-        <v>17719</v>
+        <v>17830</v>
       </c>
       <c r="E395" s="2">
-        <v>16274</v>
+        <v>16271</v>
       </c>
       <c r="F395" s="2">
-        <v>15700</v>
+        <v>15701</v>
       </c>
       <c r="G395" s="2">
-        <v>16938</v>
+        <v>16823</v>
       </c>
       <c r="H395" s="3">
         <v>0.94</v>
@@ -17965,7 +17957,7 @@
         <v>0.92</v>
       </c>
       <c r="J395" s="3">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="K395" s="3">
         <v>0.96</v>
@@ -17982,22 +17974,22 @@
         <v>406</v>
       </c>
       <c r="B396" s="2">
-        <v>15728</v>
+        <v>15758</v>
       </c>
       <c r="C396" s="2">
-        <v>14986</v>
+        <v>14936</v>
       </c>
       <c r="D396" s="2">
-        <v>16488</v>
+        <v>16764</v>
       </c>
       <c r="E396" s="2">
-        <v>16397</v>
+        <v>16413</v>
       </c>
       <c r="F396" s="2">
-        <v>15738</v>
+        <v>15747</v>
       </c>
       <c r="G396" s="2">
-        <v>17134</v>
+        <v>17107</v>
       </c>
       <c r="H396" s="3">
         <v>0.99</v>
@@ -18012,10 +18004,10 @@
         <v>0.96</v>
       </c>
       <c r="L396" s="3">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="M396" s="3">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="397" spans="1:13">
@@ -18023,34 +18015,34 @@
         <v>407</v>
       </c>
       <c r="B397" s="2">
-        <v>16304</v>
+        <v>16426</v>
       </c>
       <c r="C397" s="2">
-        <v>15138</v>
+        <v>15573</v>
       </c>
       <c r="D397" s="2">
-        <v>17262</v>
+        <v>17278</v>
       </c>
       <c r="E397" s="2">
-        <v>16772</v>
+        <v>16825</v>
       </c>
       <c r="F397" s="2">
-        <v>15952</v>
+        <v>16064</v>
       </c>
       <c r="G397" s="2">
-        <v>17616</v>
+        <v>17629</v>
       </c>
       <c r="H397" s="3">
         <v>1.07</v>
       </c>
       <c r="I397" s="3">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="J397" s="3">
-        <v>1.0900000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K397" s="3">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="L397" s="3">
         <v>0.94</v>
@@ -18064,28 +18056,28 @@
         <v>408</v>
       </c>
       <c r="B398" s="2">
-        <v>14911</v>
+        <v>14961</v>
       </c>
       <c r="C398" s="2">
-        <v>13743</v>
+        <v>14181</v>
       </c>
       <c r="D398" s="2">
-        <v>16054</v>
+        <v>15885</v>
       </c>
       <c r="E398" s="2">
-        <v>15978</v>
+        <v>16037</v>
       </c>
       <c r="F398" s="2">
-        <v>15035</v>
+        <v>15256</v>
       </c>
       <c r="G398" s="2">
-        <v>16881</v>
+        <v>16939</v>
       </c>
       <c r="H398" s="3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="I398" s="3">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="J398" s="3">
         <v>1.02</v>
@@ -18105,22 +18097,22 @@
         <v>409</v>
       </c>
       <c r="B399" s="2">
-        <v>14268</v>
+        <v>14309</v>
       </c>
       <c r="C399" s="2">
-        <v>12866</v>
+        <v>13244</v>
       </c>
       <c r="D399" s="2">
-        <v>15538</v>
+        <v>15288</v>
       </c>
       <c r="E399" s="2">
-        <v>15303</v>
+        <v>15363</v>
       </c>
       <c r="F399" s="2">
-        <v>14183</v>
+        <v>14484</v>
       </c>
       <c r="G399" s="2">
-        <v>16335</v>
+        <v>16303</v>
       </c>
       <c r="H399" s="3">
         <v>0.94</v>
@@ -18132,13 +18124,13 @@
         <v>0.97</v>
       </c>
       <c r="K399" s="3">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="L399" s="3">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="M399" s="3">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="400" spans="1:13">
@@ -18146,28 +18138,28 @@
         <v>410</v>
       </c>
       <c r="B400" s="2">
-        <v>14475</v>
+        <v>14645</v>
       </c>
       <c r="C400" s="2">
-        <v>12470</v>
+        <v>13310</v>
       </c>
       <c r="D400" s="2">
-        <v>16429</v>
+        <v>15906</v>
       </c>
       <c r="E400" s="2">
-        <v>14990</v>
+        <v>15085</v>
       </c>
       <c r="F400" s="2">
-        <v>13554</v>
+        <v>14077</v>
       </c>
       <c r="G400" s="2">
-        <v>16321</v>
+        <v>16089</v>
       </c>
       <c r="H400" s="3">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="I400" s="3">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="J400" s="3">
         <v>0.96</v>
@@ -18176,10 +18168,10 @@
         <v>0.96</v>
       </c>
       <c r="L400" s="3">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="M400" s="3">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="401" spans="1:13">
@@ -18187,25 +18179,25 @@
         <v>411</v>
       </c>
       <c r="B401" s="2">
-        <v>16321</v>
+        <v>16462</v>
       </c>
       <c r="C401" s="2">
-        <v>13918</v>
+        <v>14235</v>
       </c>
       <c r="D401" s="2">
-        <v>18152</v>
+        <v>18312</v>
       </c>
       <c r="E401" s="2">
-        <v>14994</v>
+        <v>15094</v>
       </c>
       <c r="F401" s="2">
-        <v>13249</v>
+        <v>13742</v>
       </c>
       <c r="G401" s="2">
-        <v>16543</v>
+        <v>16348</v>
       </c>
       <c r="H401" s="3">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="I401" s="3">
         <v>0.85</v>
@@ -18220,7 +18212,7 @@
         <v>0.96</v>
       </c>
       <c r="M401" s="3">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="402" spans="1:13">
@@ -18228,22 +18220,22 @@
         <v>412</v>
       </c>
       <c r="B402" s="2">
-        <v>19551</v>
+        <v>19183</v>
       </c>
       <c r="C402" s="2">
-        <v>16062</v>
+        <v>15263</v>
       </c>
       <c r="D402" s="2">
-        <v>23710</v>
+        <v>22212</v>
       </c>
       <c r="E402" s="2">
-        <v>16154</v>
+        <v>16150</v>
       </c>
       <c r="F402" s="2">
-        <v>13829</v>
+        <v>14013</v>
       </c>
       <c r="G402" s="2">
-        <v>18457</v>
+        <v>17930</v>
       </c>
       <c r="H402" s="3">
         <v>1.01</v>
@@ -18252,16 +18244,16 @@
         <v>0.94</v>
       </c>
       <c r="J402" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="K402" s="3">
         <v>1.04</v>
       </c>
       <c r="L402" s="3">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="M402" s="3">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="403" spans="1:13">
@@ -18269,22 +18261,22 @@
         <v>413</v>
       </c>
       <c r="B403" s="2">
-        <v>20038</v>
+        <v>20093</v>
       </c>
       <c r="C403" s="2">
-        <v>14359</v>
+        <v>15976</v>
       </c>
       <c r="D403" s="2">
-        <v>24261</v>
+        <v>24985</v>
       </c>
       <c r="E403" s="2">
         <v>17596</v>
       </c>
       <c r="F403" s="2">
-        <v>14202</v>
+        <v>14696</v>
       </c>
       <c r="G403" s="2">
-        <v>20638</v>
+        <v>20354</v>
       </c>
       <c r="H403" s="3">
         <v>1.1499999999999999</v>
@@ -18293,16 +18285,16 @@
         <v>1.04</v>
       </c>
       <c r="J403" s="3">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="K403" s="3">
         <v>1.07</v>
       </c>
       <c r="L403" s="3">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="M403" s="3">
-        <v>1.1499999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="404" spans="1:13">
@@ -18310,40 +18302,40 @@
         <v>414</v>
       </c>
       <c r="B404" s="2">
-        <v>18408</v>
+        <v>19243</v>
       </c>
       <c r="C404" s="2">
-        <v>10749</v>
+        <v>12916</v>
       </c>
       <c r="D404" s="2">
-        <v>24300</v>
+        <v>24338</v>
       </c>
       <c r="E404" s="2">
-        <v>18580</v>
+        <v>18745</v>
       </c>
       <c r="F404" s="2">
-        <v>13772</v>
+        <v>14598</v>
       </c>
       <c r="G404" s="2">
-        <v>22606</v>
+        <v>22462</v>
       </c>
       <c r="H404" s="3">
         <v>1.24</v>
       </c>
       <c r="I404" s="3">
-        <v>1.1200000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J404" s="3">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="K404" s="3">
-        <v>1.08</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L404" s="3">
-        <v>0.97</v>
+        <v>1.01</v>
       </c>
       <c r="M404" s="3">
-        <v>1.1599999999999999</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="405" spans="1:13">
@@ -18351,40 +18343,81 @@
         <v>415</v>
       </c>
       <c r="B405" s="2">
-        <v>14597</v>
+        <v>17256</v>
       </c>
       <c r="C405" s="2">
-        <v>8973</v>
+        <v>11317</v>
       </c>
       <c r="D405" s="2">
-        <v>20035</v>
+        <v>22948</v>
       </c>
       <c r="E405" s="2">
-        <v>18149</v>
+        <v>18944</v>
       </c>
       <c r="F405" s="2">
-        <v>12536</v>
+        <v>13868</v>
       </c>
       <c r="G405" s="2">
-        <v>23077</v>
+        <v>23621</v>
       </c>
       <c r="H405" s="3">
+        <v>1.26</v>
+      </c>
+      <c r="I405" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="J405" s="3">
+        <v>1.44</v>
+      </c>
+      <c r="K405" s="3">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="L405" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="M405" s="3">
         <v>1.21</v>
       </c>
-      <c r="I405" s="3">
-        <v>0.98</v>
-      </c>
-      <c r="J405" s="3">
-        <v>1.39</v>
-      </c>
-      <c r="K405" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="L405" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="M405" s="3" t="s">
-        <v>420</v>
+    </row>
+    <row r="406" spans="1:13">
+      <c r="A406" t="s">
+        <v>416</v>
+      </c>
+      <c r="B406" s="2">
+        <v>16875</v>
+      </c>
+      <c r="C406" s="2">
+        <v>10288</v>
+      </c>
+      <c r="D406" s="2">
+        <v>23871</v>
+      </c>
+      <c r="E406" s="2">
+        <v>18367</v>
+      </c>
+      <c r="F406" s="2">
+        <v>12624</v>
+      </c>
+      <c r="G406" s="2">
+        <v>24036</v>
+      </c>
+      <c r="H406" s="3">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="I406" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="J406" s="3">
+        <v>1.32</v>
+      </c>
+      <c r="K406" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="L406" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M406" s="3" t="s">
+        <v>422</v>
       </c>
     </row>
   </sheetData>

--- a/data/rki_rwert_excel.xlsx
+++ b/data/rki_rwert_excel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8708DC6-2CA6-42A2-BE81-9AFB8421B317}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4054224-2E5B-4822-A4B2-1332A555F077}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18765" windowHeight="7320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="457">
   <si>
     <t>Erläuterung</t>
   </si>
@@ -33,7 +33,7 @@
     <t/>
   </si>
   <si>
-    <t>Datenstand: 2021-04-25, 00:00 Uhr</t>
+    <t>Datenstand: 2021-04-26, 00:00 Uhr</t>
   </si>
   <si>
     <t/>
@@ -48,7 +48,7 @@
     <t/>
   </si>
   <si>
-    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 2021-04-25 dargestellten Nowcasting-Kurve.</t>
+    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 2021-04-26 dargestellten Nowcasting-Kurve.</t>
   </si>
   <si>
     <t>Der letzte Schätzwert der Reproduktionszahl R wird ebenfalls im gleichen Lagebericht erwähnt.</t>
@@ -1321,6 +1321,9 @@
   </si>
   <si>
     <t>21.04.2021</t>
+  </si>
+  <si>
+    <t>22.04.2021</t>
   </si>
   <si>
     <t>Punktschätzer der Anzahl Neuerkrankungen (ohne Glättung)</t>
@@ -1741,7 +1744,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1841,10 +1844,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M417"/>
+  <dimension ref="A1:M418"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:M417"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:M418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1857,40 +1860,40 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1916,22 +1919,22 @@
         <v>238</v>
       </c>
       <c r="H2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="J2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1957,22 +1960,22 @@
         <v>276</v>
       </c>
       <c r="H3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="J3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1998,22 +2001,22 @@
         <v>342</v>
       </c>
       <c r="H4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="J4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2039,22 +2042,22 @@
         <v>412</v>
       </c>
       <c r="H5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="J5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -16415,7 +16418,7 @@
         <v>7651</v>
       </c>
       <c r="C356" s="2">
-        <v>7541</v>
+        <v>7540</v>
       </c>
       <c r="D356" s="2">
         <v>7757</v>
@@ -16456,10 +16459,10 @@
         <v>7383</v>
       </c>
       <c r="C357" s="2">
-        <v>7277</v>
+        <v>7281</v>
       </c>
       <c r="D357" s="2">
-        <v>7491</v>
+        <v>7492</v>
       </c>
       <c r="E357" s="2">
         <v>7707</v>
@@ -16494,19 +16497,19 @@
         <v>375</v>
       </c>
       <c r="B358" s="2">
-        <v>7126</v>
+        <v>7125</v>
       </c>
       <c r="C358" s="2">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="D358" s="2">
-        <v>7234</v>
+        <v>7233</v>
       </c>
       <c r="E358" s="2">
         <v>7470</v>
       </c>
       <c r="F358" s="2">
-        <v>7360</v>
+        <v>7361</v>
       </c>
       <c r="G358" s="2">
         <v>7578</v>
@@ -16535,13 +16538,13 @@
         <v>376</v>
       </c>
       <c r="B359" s="2">
-        <v>8955</v>
+        <v>8956</v>
       </c>
       <c r="C359" s="2">
-        <v>8826</v>
+        <v>8825</v>
       </c>
       <c r="D359" s="2">
-        <v>9067</v>
+        <v>9068</v>
       </c>
       <c r="E359" s="2">
         <v>7779</v>
@@ -16579,19 +16582,19 @@
         <v>8501</v>
       </c>
       <c r="C360" s="2">
-        <v>8388</v>
+        <v>8389</v>
       </c>
       <c r="D360" s="2">
-        <v>8599</v>
+        <v>8602</v>
       </c>
       <c r="E360" s="2">
         <v>7991</v>
       </c>
       <c r="F360" s="2">
-        <v>7879</v>
+        <v>7880</v>
       </c>
       <c r="G360" s="2">
-        <v>8097</v>
+        <v>8098</v>
       </c>
       <c r="H360" s="3">
         <v>1.01</v>
@@ -16620,19 +16623,19 @@
         <v>8089</v>
       </c>
       <c r="C361" s="2">
-        <v>7993</v>
+        <v>7989</v>
       </c>
       <c r="D361" s="2">
-        <v>8207</v>
+        <v>8205</v>
       </c>
       <c r="E361" s="2">
         <v>8168</v>
       </c>
       <c r="F361" s="2">
-        <v>8058</v>
+        <v>8057</v>
       </c>
       <c r="G361" s="2">
-        <v>8276</v>
+        <v>8277</v>
       </c>
       <c r="H361" s="3">
         <v>1.06</v>
@@ -16658,22 +16661,22 @@
         <v>379</v>
       </c>
       <c r="B362" s="2">
-        <v>7658</v>
+        <v>7659</v>
       </c>
       <c r="C362" s="2">
         <v>7547</v>
       </c>
       <c r="D362" s="2">
-        <v>7770</v>
+        <v>7771</v>
       </c>
       <c r="E362" s="2">
         <v>8301</v>
       </c>
       <c r="F362" s="2">
-        <v>8188</v>
+        <v>8187</v>
       </c>
       <c r="G362" s="2">
-        <v>8410</v>
+        <v>8411</v>
       </c>
       <c r="H362" s="3">
         <v>1.1100000000000001</v>
@@ -16702,10 +16705,10 @@
         <v>7940</v>
       </c>
       <c r="C363" s="2">
-        <v>7831</v>
+        <v>7832</v>
       </c>
       <c r="D363" s="2">
-        <v>8058</v>
+        <v>8061</v>
       </c>
       <c r="E363" s="2">
         <v>8047</v>
@@ -16714,7 +16717,7 @@
         <v>7939</v>
       </c>
       <c r="G363" s="2">
-        <v>8158</v>
+        <v>8160</v>
       </c>
       <c r="H363" s="3">
         <v>1.03</v>
@@ -16740,19 +16743,19 @@
         <v>381</v>
       </c>
       <c r="B364" s="2">
-        <v>7182</v>
+        <v>7181</v>
       </c>
       <c r="C364" s="2">
-        <v>7088</v>
+        <v>7083</v>
       </c>
       <c r="D364" s="2">
-        <v>7287</v>
+        <v>7282</v>
       </c>
       <c r="E364" s="2">
         <v>7717</v>
       </c>
       <c r="F364" s="2">
-        <v>7614</v>
+        <v>7613</v>
       </c>
       <c r="G364" s="2">
         <v>7830</v>
@@ -16781,19 +16784,19 @@
         <v>382</v>
       </c>
       <c r="B365" s="2">
-        <v>7343</v>
+        <v>7344</v>
       </c>
       <c r="C365" s="2">
         <v>7229</v>
       </c>
       <c r="D365" s="2">
-        <v>7430</v>
+        <v>7431</v>
       </c>
       <c r="E365" s="2">
         <v>7531</v>
       </c>
       <c r="F365" s="2">
-        <v>7423</v>
+        <v>7422</v>
       </c>
       <c r="G365" s="2">
         <v>7636</v>
@@ -16822,13 +16825,13 @@
         <v>383</v>
       </c>
       <c r="B366" s="2">
-        <v>9528</v>
+        <v>9527</v>
       </c>
       <c r="C366" s="2">
-        <v>9407</v>
+        <v>9408</v>
       </c>
       <c r="D366" s="2">
-        <v>9650</v>
+        <v>9651</v>
       </c>
       <c r="E366" s="2">
         <v>7998</v>
@@ -16863,22 +16866,22 @@
         <v>384</v>
       </c>
       <c r="B367" s="2">
-        <v>8913</v>
+        <v>8912</v>
       </c>
       <c r="C367" s="2">
-        <v>8809</v>
+        <v>8810</v>
       </c>
       <c r="D367" s="2">
-        <v>9040</v>
+        <v>9038</v>
       </c>
       <c r="E367" s="2">
         <v>8241</v>
       </c>
       <c r="F367" s="2">
-        <v>8133</v>
+        <v>8132</v>
       </c>
       <c r="G367" s="2">
-        <v>8352</v>
+        <v>8350</v>
       </c>
       <c r="H367" s="3">
         <v>1.02</v>
@@ -16904,13 +16907,13 @@
         <v>385</v>
       </c>
       <c r="B368" s="2">
-        <v>8997</v>
+        <v>8995</v>
       </c>
       <c r="C368" s="2">
-        <v>8866</v>
+        <v>8863</v>
       </c>
       <c r="D368" s="2">
-        <v>9107</v>
+        <v>9108</v>
       </c>
       <c r="E368" s="2">
         <v>8695</v>
@@ -16919,7 +16922,7 @@
         <v>8577</v>
       </c>
       <c r="G368" s="2">
-        <v>8806</v>
+        <v>8807</v>
       </c>
       <c r="H368" s="3">
         <v>1.1299999999999999</v>
@@ -16945,10 +16948,10 @@
         <v>386</v>
       </c>
       <c r="B369" s="2">
-        <v>8646</v>
+        <v>8647</v>
       </c>
       <c r="C369" s="2">
-        <v>8530</v>
+        <v>8531</v>
       </c>
       <c r="D369" s="2">
         <v>8756</v>
@@ -16978,7 +16981,7 @@
         <v>1.06</v>
       </c>
       <c r="M369" s="3">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="370" spans="1:13">
@@ -16986,22 +16989,22 @@
         <v>387</v>
       </c>
       <c r="B370" s="2">
-        <v>9018</v>
+        <v>9019</v>
       </c>
       <c r="C370" s="2">
         <v>8915</v>
       </c>
       <c r="D370" s="2">
-        <v>9141</v>
+        <v>9152</v>
       </c>
       <c r="E370" s="2">
-        <v>8894</v>
+        <v>8893</v>
       </c>
       <c r="F370" s="2">
-        <v>8780</v>
+        <v>8779</v>
       </c>
       <c r="G370" s="2">
-        <v>9011</v>
+        <v>9013</v>
       </c>
       <c r="H370" s="3">
         <v>1.1100000000000001</v>
@@ -17027,22 +17030,22 @@
         <v>388</v>
       </c>
       <c r="B371" s="2">
-        <v>8899</v>
+        <v>8901</v>
       </c>
       <c r="C371" s="2">
-        <v>8776</v>
+        <v>8775</v>
       </c>
       <c r="D371" s="2">
-        <v>9033</v>
+        <v>9025</v>
       </c>
       <c r="E371" s="2">
-        <v>8890</v>
+        <v>8891</v>
       </c>
       <c r="F371" s="2">
-        <v>8772</v>
+        <v>8771</v>
       </c>
       <c r="G371" s="2">
-        <v>9009</v>
+        <v>9010</v>
       </c>
       <c r="H371" s="3">
         <v>1.08</v>
@@ -17068,22 +17071,22 @@
         <v>389</v>
       </c>
       <c r="B372" s="2">
-        <v>9031</v>
+        <v>9032</v>
       </c>
       <c r="C372" s="2">
-        <v>8907</v>
+        <v>8899</v>
       </c>
       <c r="D372" s="2">
-        <v>9154</v>
+        <v>9157</v>
       </c>
       <c r="E372" s="2">
-        <v>8899</v>
+        <v>8900</v>
       </c>
       <c r="F372" s="2">
-        <v>8782</v>
+        <v>8780</v>
       </c>
       <c r="G372" s="2">
-        <v>9021</v>
+        <v>9022</v>
       </c>
       <c r="H372" s="3">
         <v>1.02</v>
@@ -17109,22 +17112,22 @@
         <v>390</v>
       </c>
       <c r="B373" s="2">
-        <v>11796</v>
+        <v>11793</v>
       </c>
       <c r="C373" s="2">
-        <v>11685</v>
+        <v>11665</v>
       </c>
       <c r="D373" s="2">
-        <v>11928</v>
+        <v>11934</v>
       </c>
       <c r="E373" s="2">
         <v>9686</v>
       </c>
       <c r="F373" s="2">
-        <v>9571</v>
+        <v>9563</v>
       </c>
       <c r="G373" s="2">
-        <v>9814</v>
+        <v>9817</v>
       </c>
       <c r="H373" s="3">
         <v>1.07</v>
@@ -17153,16 +17156,16 @@
         <v>11501</v>
       </c>
       <c r="C374" s="2">
-        <v>11361</v>
+        <v>11354</v>
       </c>
       <c r="D374" s="2">
-        <v>11634</v>
+        <v>11633</v>
       </c>
       <c r="E374" s="2">
         <v>10307</v>
       </c>
       <c r="F374" s="2">
-        <v>10182</v>
+        <v>10173</v>
       </c>
       <c r="G374" s="2">
         <v>10437</v>
@@ -17191,22 +17194,22 @@
         <v>392</v>
       </c>
       <c r="B375" s="2">
-        <v>11731</v>
+        <v>11730</v>
       </c>
       <c r="C375" s="2">
-        <v>11593</v>
+        <v>11590</v>
       </c>
       <c r="D375" s="2">
-        <v>11857</v>
+        <v>11863</v>
       </c>
       <c r="E375" s="2">
-        <v>11015</v>
+        <v>11014</v>
       </c>
       <c r="F375" s="2">
-        <v>10886</v>
+        <v>10877</v>
       </c>
       <c r="G375" s="2">
-        <v>11143</v>
+        <v>11146</v>
       </c>
       <c r="H375" s="3">
         <v>1.24</v>
@@ -17232,28 +17235,28 @@
         <v>393</v>
       </c>
       <c r="B376" s="2">
-        <v>11500</v>
+        <v>11497</v>
       </c>
       <c r="C376" s="2">
-        <v>11366</v>
+        <v>11349</v>
       </c>
       <c r="D376" s="2">
-        <v>11655</v>
+        <v>11647</v>
       </c>
       <c r="E376" s="2">
-        <v>11632</v>
+        <v>11630</v>
       </c>
       <c r="F376" s="2">
-        <v>11501</v>
+        <v>11489</v>
       </c>
       <c r="G376" s="2">
-        <v>11768</v>
+        <v>11769</v>
       </c>
       <c r="H376" s="3">
         <v>1.31</v>
       </c>
       <c r="I376" s="3">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="J376" s="3">
         <v>1.32</v>
@@ -17273,22 +17276,22 @@
         <v>394</v>
       </c>
       <c r="B377" s="2">
-        <v>12061</v>
+        <v>12059</v>
       </c>
       <c r="C377" s="2">
-        <v>11926</v>
+        <v>11927</v>
       </c>
       <c r="D377" s="2">
-        <v>12193</v>
+        <v>12203</v>
       </c>
       <c r="E377" s="2">
-        <v>11698</v>
+        <v>11697</v>
       </c>
       <c r="F377" s="2">
-        <v>11561</v>
+        <v>11555</v>
       </c>
       <c r="G377" s="2">
-        <v>11835</v>
+        <v>11836</v>
       </c>
       <c r="H377" s="3">
         <v>1.21</v>
@@ -17317,19 +17320,19 @@
         <v>11831</v>
       </c>
       <c r="C378" s="2">
-        <v>11709</v>
+        <v>11694</v>
       </c>
       <c r="D378" s="2">
-        <v>11994</v>
+        <v>11961</v>
       </c>
       <c r="E378" s="2">
-        <v>11781</v>
+        <v>11779</v>
       </c>
       <c r="F378" s="2">
-        <v>11648</v>
+        <v>11640</v>
       </c>
       <c r="G378" s="2">
-        <v>11925</v>
+        <v>11918</v>
       </c>
       <c r="H378" s="3">
         <v>1.1399999999999999</v>
@@ -17355,22 +17358,22 @@
         <v>396</v>
       </c>
       <c r="B379" s="2">
-        <v>12089</v>
+        <v>12082</v>
       </c>
       <c r="C379" s="2">
-        <v>11950</v>
+        <v>11962</v>
       </c>
       <c r="D379" s="2">
-        <v>12227</v>
+        <v>12212</v>
       </c>
       <c r="E379" s="2">
-        <v>11870</v>
+        <v>11867</v>
       </c>
       <c r="F379" s="2">
-        <v>11737</v>
+        <v>11733</v>
       </c>
       <c r="G379" s="2">
-        <v>12017</v>
+        <v>12006</v>
       </c>
       <c r="H379" s="3">
         <v>1.08</v>
@@ -17379,7 +17382,7 @@
         <v>1.07</v>
       </c>
       <c r="J379" s="3">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="K379" s="3">
         <v>1.17</v>
@@ -17396,25 +17399,25 @@
         <v>397</v>
       </c>
       <c r="B380" s="2">
-        <v>15432</v>
+        <v>15434</v>
       </c>
       <c r="C380" s="2">
-        <v>15303</v>
+        <v>15285</v>
       </c>
       <c r="D380" s="2">
-        <v>15567</v>
+        <v>15596</v>
       </c>
       <c r="E380" s="2">
-        <v>12853</v>
+        <v>12851</v>
       </c>
       <c r="F380" s="2">
-        <v>12722</v>
+        <v>12717</v>
       </c>
       <c r="G380" s="2">
-        <v>12995</v>
+        <v>12993</v>
       </c>
       <c r="H380" s="3">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I380" s="3">
         <v>1.1000000000000001</v>
@@ -17437,19 +17440,19 @@
         <v>398</v>
       </c>
       <c r="B381" s="2">
-        <v>14878</v>
+        <v>14887</v>
       </c>
       <c r="C381" s="2">
-        <v>14724</v>
+        <v>14749</v>
       </c>
       <c r="D381" s="2">
-        <v>15043</v>
+        <v>15059</v>
       </c>
       <c r="E381" s="2">
         <v>13558</v>
       </c>
       <c r="F381" s="2">
-        <v>13421</v>
+        <v>13422</v>
       </c>
       <c r="G381" s="2">
         <v>13707</v>
@@ -17478,22 +17481,22 @@
         <v>399</v>
       </c>
       <c r="B382" s="2">
-        <v>15010</v>
+        <v>15023</v>
       </c>
       <c r="C382" s="2">
-        <v>14876</v>
+        <v>14862</v>
       </c>
       <c r="D382" s="2">
-        <v>15151</v>
+        <v>15228</v>
       </c>
       <c r="E382" s="2">
-        <v>14352</v>
+        <v>14356</v>
       </c>
       <c r="F382" s="2">
-        <v>14213</v>
+        <v>14214</v>
       </c>
       <c r="G382" s="2">
-        <v>14497</v>
+        <v>14524</v>
       </c>
       <c r="H382" s="3">
         <v>1.22</v>
@@ -17519,22 +17522,22 @@
         <v>400</v>
       </c>
       <c r="B383" s="2">
-        <v>14273</v>
+        <v>14266</v>
       </c>
       <c r="C383" s="2">
-        <v>14142</v>
+        <v>14102</v>
       </c>
       <c r="D383" s="2">
-        <v>14391</v>
+        <v>14394</v>
       </c>
       <c r="E383" s="2">
-        <v>14898</v>
+        <v>14902</v>
       </c>
       <c r="F383" s="2">
-        <v>14761</v>
+        <v>14749</v>
       </c>
       <c r="G383" s="2">
-        <v>15038</v>
+        <v>15069</v>
       </c>
       <c r="H383" s="3">
         <v>1.26</v>
@@ -17543,7 +17546,7 @@
         <v>1.25</v>
       </c>
       <c r="J383" s="3">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="K383" s="3">
         <v>1.1399999999999999</v>
@@ -17560,22 +17563,22 @@
         <v>401</v>
       </c>
       <c r="B384" s="2">
-        <v>14840</v>
+        <v>14836</v>
       </c>
       <c r="C384" s="2">
-        <v>14708</v>
+        <v>14684</v>
       </c>
       <c r="D384" s="2">
-        <v>14952</v>
+        <v>14962</v>
       </c>
       <c r="E384" s="2">
-        <v>14750</v>
+        <v>14753</v>
       </c>
       <c r="F384" s="2">
-        <v>14613</v>
+        <v>14599</v>
       </c>
       <c r="G384" s="2">
-        <v>14884</v>
+        <v>14911</v>
       </c>
       <c r="H384" s="3">
         <v>1.1499999999999999</v>
@@ -17601,22 +17604,22 @@
         <v>402</v>
       </c>
       <c r="B385" s="2">
-        <v>14994</v>
+        <v>14997</v>
       </c>
       <c r="C385" s="2">
-        <v>14835</v>
+        <v>14860</v>
       </c>
       <c r="D385" s="2">
-        <v>15143</v>
+        <v>15138</v>
       </c>
       <c r="E385" s="2">
-        <v>14779</v>
+        <v>14780</v>
       </c>
       <c r="F385" s="2">
-        <v>14640</v>
+        <v>14627</v>
       </c>
       <c r="G385" s="2">
-        <v>14909</v>
+        <v>14930</v>
       </c>
       <c r="H385" s="3">
         <v>1.0900000000000001</v>
@@ -17642,22 +17645,22 @@
         <v>403</v>
       </c>
       <c r="B386" s="2">
-        <v>15344</v>
+        <v>15340</v>
       </c>
       <c r="C386" s="2">
-        <v>15182</v>
+        <v>15186</v>
       </c>
       <c r="D386" s="2">
-        <v>15490</v>
+        <v>15492</v>
       </c>
       <c r="E386" s="2">
-        <v>14863</v>
+        <v>14860</v>
       </c>
       <c r="F386" s="2">
-        <v>14717</v>
+        <v>14708</v>
       </c>
       <c r="G386" s="2">
-        <v>14994</v>
+        <v>14996</v>
       </c>
       <c r="H386" s="3">
         <v>1.04</v>
@@ -17683,22 +17686,22 @@
         <v>404</v>
       </c>
       <c r="B387" s="2">
-        <v>18827</v>
+        <v>18836</v>
       </c>
       <c r="C387" s="2">
-        <v>18611</v>
+        <v>18670</v>
       </c>
       <c r="D387" s="2">
-        <v>18996</v>
+        <v>18992</v>
       </c>
       <c r="E387" s="2">
-        <v>16001</v>
+        <v>16002</v>
       </c>
       <c r="F387" s="2">
-        <v>15834</v>
+        <v>15850</v>
       </c>
       <c r="G387" s="2">
-        <v>16145</v>
+        <v>16146</v>
       </c>
       <c r="H387" s="3">
         <v>1.07</v>
@@ -17724,22 +17727,22 @@
         <v>405</v>
       </c>
       <c r="B388" s="2">
-        <v>18482</v>
+        <v>18475</v>
       </c>
       <c r="C388" s="2">
-        <v>18306</v>
+        <v>18247</v>
       </c>
       <c r="D388" s="2">
-        <v>18642</v>
+        <v>18632</v>
       </c>
       <c r="E388" s="2">
         <v>16912</v>
       </c>
       <c r="F388" s="2">
-        <v>16733</v>
+        <v>16741</v>
       </c>
       <c r="G388" s="2">
-        <v>17068</v>
+        <v>17063</v>
       </c>
       <c r="H388" s="3">
         <v>1.1499999999999999</v>
@@ -17754,7 +17757,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="L388" s="3">
-        <v>1.1299999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="M388" s="3">
         <v>1.1299999999999999</v>
@@ -17765,19 +17768,19 @@
         <v>406</v>
       </c>
       <c r="B389" s="2">
-        <v>17870</v>
+        <v>17875</v>
       </c>
       <c r="C389" s="2">
-        <v>17683</v>
+        <v>17657</v>
       </c>
       <c r="D389" s="2">
-        <v>18026</v>
+        <v>18036</v>
       </c>
       <c r="E389" s="2">
-        <v>17631</v>
+        <v>17632</v>
       </c>
       <c r="F389" s="2">
-        <v>17445</v>
+        <v>17440</v>
       </c>
       <c r="G389" s="2">
         <v>17788</v>
@@ -17806,22 +17809,22 @@
         <v>407</v>
       </c>
       <c r="B390" s="2">
-        <v>16671</v>
+        <v>16669</v>
       </c>
       <c r="C390" s="2">
-        <v>16519</v>
+        <v>16484</v>
       </c>
       <c r="D390" s="2">
-        <v>16825</v>
+        <v>16850</v>
       </c>
       <c r="E390" s="2">
-        <v>17962</v>
+        <v>17964</v>
       </c>
       <c r="F390" s="2">
-        <v>17780</v>
+        <v>17764</v>
       </c>
       <c r="G390" s="2">
-        <v>18122</v>
+        <v>18127</v>
       </c>
       <c r="H390" s="3">
         <v>1.21</v>
@@ -17847,22 +17850,22 @@
         <v>408</v>
       </c>
       <c r="B391" s="2">
-        <v>16336</v>
+        <v>16321</v>
       </c>
       <c r="C391" s="2">
-        <v>16107</v>
+        <v>16167</v>
       </c>
       <c r="D391" s="2">
-        <v>16539</v>
+        <v>16454</v>
       </c>
       <c r="E391" s="2">
-        <v>17340</v>
+        <v>17335</v>
       </c>
       <c r="F391" s="2">
-        <v>17154</v>
+        <v>17139</v>
       </c>
       <c r="G391" s="2">
-        <v>17508</v>
+        <v>17493</v>
       </c>
       <c r="H391" s="3">
         <v>1.08</v>
@@ -17888,22 +17891,22 @@
         <v>409</v>
       </c>
       <c r="B392" s="2">
-        <v>15163</v>
+        <v>15178</v>
       </c>
       <c r="C392" s="2">
-        <v>14937</v>
+        <v>15017</v>
       </c>
       <c r="D392" s="2">
-        <v>15384</v>
+        <v>15359</v>
       </c>
       <c r="E392" s="2">
-        <v>16510</v>
+        <v>16511</v>
       </c>
       <c r="F392" s="2">
-        <v>16311</v>
+        <v>16331</v>
       </c>
       <c r="G392" s="2">
-        <v>16693</v>
+        <v>16675</v>
       </c>
       <c r="H392" s="3">
         <v>0.98</v>
@@ -17929,28 +17932,28 @@
         <v>410</v>
       </c>
       <c r="B393" s="2">
-        <v>14734</v>
+        <v>14705</v>
       </c>
       <c r="C393" s="2">
-        <v>14491</v>
+        <v>14477</v>
       </c>
       <c r="D393" s="2">
-        <v>14915</v>
+        <v>14944</v>
       </c>
       <c r="E393" s="2">
-        <v>15726</v>
+        <v>15718</v>
       </c>
       <c r="F393" s="2">
-        <v>15513</v>
+        <v>15536</v>
       </c>
       <c r="G393" s="2">
-        <v>15916</v>
+        <v>15902</v>
       </c>
       <c r="H393" s="3">
         <v>0.89</v>
       </c>
       <c r="I393" s="3">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="J393" s="3">
         <v>0.9</v>
@@ -17970,22 +17973,22 @@
         <v>411</v>
       </c>
       <c r="B394" s="2">
-        <v>18255</v>
+        <v>18246</v>
       </c>
       <c r="C394" s="2">
-        <v>17955</v>
+        <v>18001</v>
       </c>
       <c r="D394" s="2">
-        <v>18512</v>
+        <v>18461</v>
       </c>
       <c r="E394" s="2">
-        <v>16122</v>
+        <v>16113</v>
       </c>
       <c r="F394" s="2">
-        <v>15872</v>
+        <v>15915</v>
       </c>
       <c r="G394" s="2">
-        <v>16337</v>
+        <v>16304</v>
       </c>
       <c r="H394" s="3">
         <v>0.9</v>
@@ -18011,22 +18014,22 @@
         <v>412</v>
       </c>
       <c r="B395" s="2">
-        <v>17004</v>
+        <v>17007</v>
       </c>
       <c r="C395" s="2">
-        <v>16833</v>
+        <v>16778</v>
       </c>
       <c r="D395" s="2">
-        <v>17211</v>
+        <v>17290</v>
       </c>
       <c r="E395" s="2">
-        <v>16289</v>
+        <v>16284</v>
       </c>
       <c r="F395" s="2">
-        <v>16054</v>
+        <v>16068</v>
       </c>
       <c r="G395" s="2">
-        <v>16505</v>
+        <v>16513</v>
       </c>
       <c r="H395" s="3">
         <v>0.94</v>
@@ -18052,22 +18055,22 @@
         <v>413</v>
       </c>
       <c r="B396" s="2">
-        <v>15847</v>
+        <v>15827</v>
       </c>
       <c r="C396" s="2">
-        <v>15564</v>
+        <v>15688</v>
       </c>
       <c r="D396" s="2">
-        <v>16062</v>
+        <v>16018</v>
       </c>
       <c r="E396" s="2">
-        <v>16460</v>
+        <v>16446</v>
       </c>
       <c r="F396" s="2">
-        <v>16211</v>
+        <v>16236</v>
       </c>
       <c r="G396" s="2">
-        <v>16675</v>
+        <v>16678</v>
       </c>
       <c r="H396" s="3">
         <v>1</v>
@@ -18076,10 +18079,10 @@
         <v>0.99</v>
       </c>
       <c r="J396" s="3">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="K396" s="3">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="L396" s="3">
         <v>0.96</v>
@@ -18093,22 +18096,22 @@
         <v>414</v>
       </c>
       <c r="B397" s="2">
-        <v>16621</v>
+        <v>16597</v>
       </c>
       <c r="C397" s="2">
-        <v>16333</v>
+        <v>16339</v>
       </c>
       <c r="D397" s="2">
-        <v>16853</v>
+        <v>16856</v>
       </c>
       <c r="E397" s="2">
-        <v>16932</v>
+        <v>16919</v>
       </c>
       <c r="F397" s="2">
-        <v>16671</v>
+        <v>16702</v>
       </c>
       <c r="G397" s="2">
-        <v>17159</v>
+        <v>17156</v>
       </c>
       <c r="H397" s="3">
         <v>1.08</v>
@@ -18134,22 +18137,22 @@
         <v>415</v>
       </c>
       <c r="B398" s="2">
-        <v>15197</v>
+        <v>15192</v>
       </c>
       <c r="C398" s="2">
-        <v>14958</v>
+        <v>14907</v>
       </c>
       <c r="D398" s="2">
-        <v>15497</v>
+        <v>15457</v>
       </c>
       <c r="E398" s="2">
-        <v>16167</v>
+        <v>16156</v>
       </c>
       <c r="F398" s="2">
-        <v>15922</v>
+        <v>15928</v>
       </c>
       <c r="G398" s="2">
-        <v>16406</v>
+        <v>16405</v>
       </c>
       <c r="H398" s="3">
         <v>1</v>
@@ -18175,22 +18178,22 @@
         <v>416</v>
       </c>
       <c r="B399" s="2">
-        <v>14455</v>
+        <v>14475</v>
       </c>
       <c r="C399" s="2">
-        <v>14150</v>
+        <v>14259</v>
       </c>
       <c r="D399" s="2">
-        <v>14720</v>
+        <v>14684</v>
       </c>
       <c r="E399" s="2">
-        <v>15530</v>
+        <v>15523</v>
       </c>
       <c r="F399" s="2">
-        <v>15251</v>
+        <v>15298</v>
       </c>
       <c r="G399" s="2">
-        <v>15783</v>
+        <v>15754</v>
       </c>
       <c r="H399" s="3">
         <v>0.95</v>
@@ -18216,22 +18219,22 @@
         <v>417</v>
       </c>
       <c r="B400" s="2">
-        <v>14658</v>
+        <v>14664</v>
       </c>
       <c r="C400" s="2">
-        <v>14339</v>
+        <v>14368</v>
       </c>
       <c r="D400" s="2">
-        <v>14960</v>
+        <v>14916</v>
       </c>
       <c r="E400" s="2">
-        <v>15233</v>
+        <v>15232</v>
       </c>
       <c r="F400" s="2">
-        <v>14945</v>
+        <v>14968</v>
       </c>
       <c r="G400" s="2">
-        <v>15507</v>
+        <v>15478</v>
       </c>
       <c r="H400" s="3">
         <v>0.93</v>
@@ -18240,7 +18243,7 @@
         <v>0.92</v>
       </c>
       <c r="J400" s="3">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="K400" s="3">
         <v>0.97</v>
@@ -18249,7 +18252,7 @@
         <v>0.96</v>
       </c>
       <c r="M400" s="3">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="401" spans="1:13">
@@ -18257,22 +18260,22 @@
         <v>418</v>
       </c>
       <c r="B401" s="2">
-        <v>16674</v>
+        <v>16664</v>
       </c>
       <c r="C401" s="2">
-        <v>16267</v>
+        <v>16337</v>
       </c>
       <c r="D401" s="2">
-        <v>17004</v>
+        <v>17064</v>
       </c>
       <c r="E401" s="2">
-        <v>15246</v>
+        <v>15249</v>
       </c>
       <c r="F401" s="2">
-        <v>14928</v>
+        <v>14968</v>
       </c>
       <c r="G401" s="2">
-        <v>15545</v>
+        <v>15530</v>
       </c>
       <c r="H401" s="3">
         <v>0.9</v>
@@ -18298,22 +18301,22 @@
         <v>419</v>
       </c>
       <c r="B402" s="2">
-        <v>19098</v>
+        <v>19100</v>
       </c>
       <c r="C402" s="2">
-        <v>18638</v>
+        <v>18798</v>
       </c>
       <c r="D402" s="2">
-        <v>19569</v>
+        <v>19506</v>
       </c>
       <c r="E402" s="2">
-        <v>16222</v>
+        <v>16226</v>
       </c>
       <c r="F402" s="2">
-        <v>15848</v>
+        <v>15941</v>
       </c>
       <c r="G402" s="2">
-        <v>16563</v>
+        <v>16543</v>
       </c>
       <c r="H402" s="3">
         <v>1</v>
@@ -18322,7 +18325,7 @@
         <v>0.99</v>
       </c>
       <c r="J402" s="3">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K402" s="3">
         <v>1.04</v>
@@ -18339,19 +18342,19 @@
         <v>420</v>
       </c>
       <c r="B403" s="2">
-        <v>19489</v>
+        <v>19474</v>
       </c>
       <c r="C403" s="2">
-        <v>19050</v>
+        <v>18995</v>
       </c>
       <c r="D403" s="2">
-        <v>19929</v>
+        <v>19976</v>
       </c>
       <c r="E403" s="2">
-        <v>17480</v>
+        <v>17475</v>
       </c>
       <c r="F403" s="2">
-        <v>17073</v>
+        <v>17125</v>
       </c>
       <c r="G403" s="2">
         <v>17865</v>
@@ -18380,22 +18383,22 @@
         <v>421</v>
       </c>
       <c r="B404" s="2">
-        <v>19073</v>
+        <v>19017</v>
       </c>
       <c r="C404" s="2">
+        <v>18599</v>
+      </c>
+      <c r="D404" s="2">
+        <v>19507</v>
+      </c>
+      <c r="E404" s="2">
         <v>18564</v>
       </c>
-      <c r="D404" s="2">
-        <v>19521</v>
-      </c>
-      <c r="E404" s="2">
-        <v>18584</v>
-      </c>
       <c r="F404" s="2">
-        <v>18130</v>
+        <v>18182</v>
       </c>
       <c r="G404" s="2">
-        <v>19006</v>
+        <v>19013</v>
       </c>
       <c r="H404" s="3">
         <v>1.22</v>
@@ -18421,22 +18424,22 @@
         <v>422</v>
       </c>
       <c r="B405" s="2">
-        <v>18725</v>
+        <v>18713</v>
       </c>
       <c r="C405" s="2">
-        <v>18070</v>
+        <v>18224</v>
       </c>
       <c r="D405" s="2">
-        <v>19288</v>
+        <v>19195</v>
       </c>
       <c r="E405" s="2">
-        <v>19096</v>
+        <v>19076</v>
       </c>
       <c r="F405" s="2">
-        <v>18580</v>
+        <v>18654</v>
       </c>
       <c r="G405" s="2">
-        <v>19577</v>
+        <v>19546</v>
       </c>
       <c r="H405" s="3">
         <v>1.25</v>
@@ -18462,22 +18465,22 @@
         <v>423</v>
       </c>
       <c r="B406" s="2">
-        <v>18639</v>
+        <v>18621</v>
       </c>
       <c r="C406" s="2">
-        <v>17959</v>
+        <v>18034</v>
       </c>
       <c r="D406" s="2">
-        <v>19398</v>
+        <v>19165</v>
       </c>
       <c r="E406" s="2">
-        <v>18982</v>
+        <v>18956</v>
       </c>
       <c r="F406" s="2">
-        <v>18411</v>
+        <v>18463</v>
       </c>
       <c r="G406" s="2">
-        <v>19534</v>
+        <v>19461</v>
       </c>
       <c r="H406" s="3">
         <v>1.17</v>
@@ -18486,13 +18489,13 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="J406" s="3">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="K406" s="3">
         <v>1.1200000000000001</v>
       </c>
       <c r="L406" s="3">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M406" s="3">
         <v>1.1299999999999999</v>
@@ -18503,22 +18506,22 @@
         <v>424</v>
       </c>
       <c r="B407" s="2">
-        <v>18130</v>
+        <v>18093</v>
       </c>
       <c r="C407" s="2">
-        <v>17311</v>
+        <v>17430</v>
       </c>
       <c r="D407" s="2">
-        <v>18795</v>
+        <v>18699</v>
       </c>
       <c r="E407" s="2">
-        <v>18642</v>
+        <v>18611</v>
       </c>
       <c r="F407" s="2">
-        <v>17976</v>
+        <v>18072</v>
       </c>
       <c r="G407" s="2">
-        <v>19250</v>
+        <v>19142</v>
       </c>
       <c r="H407" s="3">
         <v>1.07</v>
@@ -18536,7 +18539,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="M407" s="3">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="408" spans="1:13">
@@ -18544,22 +18547,22 @@
         <v>425</v>
       </c>
       <c r="B408" s="2">
-        <v>22207</v>
+        <v>22255</v>
       </c>
       <c r="C408" s="2">
-        <v>21175</v>
+        <v>21374</v>
       </c>
       <c r="D408" s="2">
-        <v>22962</v>
+        <v>23093</v>
       </c>
       <c r="E408" s="2">
-        <v>19425</v>
+        <v>19421</v>
       </c>
       <c r="F408" s="2">
-        <v>18629</v>
+        <v>18765</v>
       </c>
       <c r="G408" s="2">
-        <v>20111</v>
+        <v>20038</v>
       </c>
       <c r="H408" s="3">
         <v>1.05</v>
@@ -18574,10 +18577,10 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="L408" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="M408" s="3">
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="409" spans="1:13">
@@ -18585,22 +18588,22 @@
         <v>426</v>
       </c>
       <c r="B409" s="2">
-        <v>20879</v>
+        <v>20805</v>
       </c>
       <c r="C409" s="2">
-        <v>19759</v>
+        <v>19698</v>
       </c>
       <c r="D409" s="2">
-        <v>21872</v>
+        <v>21889</v>
       </c>
       <c r="E409" s="2">
-        <v>19964</v>
+        <v>19944</v>
       </c>
       <c r="F409" s="2">
-        <v>19051</v>
+        <v>19134</v>
       </c>
       <c r="G409" s="2">
-        <v>20757</v>
+        <v>20711</v>
       </c>
       <c r="H409" s="3">
         <v>1.05</v>
@@ -18618,7 +18621,7 @@
         <v>1.07</v>
       </c>
       <c r="M409" s="3">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="410" spans="1:13">
@@ -18626,22 +18629,22 @@
         <v>427</v>
       </c>
       <c r="B410" s="2">
-        <v>20131</v>
+        <v>20102</v>
       </c>
       <c r="C410" s="2">
-        <v>18818</v>
+        <v>18832</v>
       </c>
       <c r="D410" s="2">
-        <v>21276</v>
+        <v>21275</v>
       </c>
       <c r="E410" s="2">
-        <v>20337</v>
+        <v>20314</v>
       </c>
       <c r="F410" s="2">
-        <v>19266</v>
+        <v>19333</v>
       </c>
       <c r="G410" s="2">
-        <v>21226</v>
+        <v>21239</v>
       </c>
       <c r="H410" s="3">
         <v>1.07</v>
@@ -18667,22 +18670,22 @@
         <v>428</v>
       </c>
       <c r="B411" s="2">
-        <v>19020</v>
+        <v>19043</v>
       </c>
       <c r="C411" s="2">
-        <v>17558</v>
+        <v>17891</v>
       </c>
       <c r="D411" s="2">
-        <v>20413</v>
+        <v>20145</v>
       </c>
       <c r="E411" s="2">
-        <v>20559</v>
+        <v>20551</v>
       </c>
       <c r="F411" s="2">
-        <v>19328</v>
+        <v>19449</v>
       </c>
       <c r="G411" s="2">
-        <v>21631</v>
+        <v>21600</v>
       </c>
       <c r="H411" s="3">
         <v>1.1000000000000001</v>
@@ -18697,7 +18700,7 @@
         <v>1.03</v>
       </c>
       <c r="L411" s="3">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="M411" s="3">
         <v>1.05</v>
@@ -18708,31 +18711,31 @@
         <v>429</v>
       </c>
       <c r="B412" s="2">
-        <v>19943</v>
+        <v>19985</v>
       </c>
       <c r="C412" s="2">
-        <v>17991</v>
+        <v>18156</v>
       </c>
       <c r="D412" s="2">
-        <v>21909</v>
+        <v>21433</v>
       </c>
       <c r="E412" s="2">
-        <v>19993</v>
+        <v>19984</v>
       </c>
       <c r="F412" s="2">
-        <v>18531</v>
+        <v>18644</v>
       </c>
       <c r="G412" s="2">
-        <v>21368</v>
+        <v>21185</v>
       </c>
       <c r="H412" s="3">
         <v>1.03</v>
       </c>
       <c r="I412" s="3">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="J412" s="3">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K412" s="3">
         <v>1.02</v>
@@ -18741,7 +18744,7 @@
         <v>0.99</v>
       </c>
       <c r="M412" s="3">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="413" spans="1:13">
@@ -18749,31 +18752,31 @@
         <v>430</v>
       </c>
       <c r="B413" s="2">
-        <v>19417</v>
+        <v>19266</v>
       </c>
       <c r="C413" s="2">
-        <v>16966</v>
+        <v>17427</v>
       </c>
       <c r="D413" s="2">
-        <v>21559</v>
+        <v>20644</v>
       </c>
       <c r="E413" s="2">
-        <v>19628</v>
+        <v>19599</v>
       </c>
       <c r="F413" s="2">
-        <v>17833</v>
+        <v>18077</v>
       </c>
       <c r="G413" s="2">
-        <v>21289</v>
+        <v>20874</v>
       </c>
       <c r="H413" s="3">
         <v>0.98</v>
       </c>
       <c r="I413" s="3">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="J413" s="3">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K413" s="3">
         <v>1.03</v>
@@ -18782,7 +18785,7 @@
         <v>1</v>
       </c>
       <c r="M413" s="3">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="414" spans="1:13">
@@ -18790,40 +18793,40 @@
         <v>431</v>
       </c>
       <c r="B414" s="2">
-        <v>20834</v>
+        <v>20180</v>
       </c>
       <c r="C414" s="2">
-        <v>17493</v>
+        <v>17758</v>
       </c>
       <c r="D414" s="2">
-        <v>24821</v>
+        <v>22509</v>
       </c>
       <c r="E414" s="2">
-        <v>19804</v>
+        <v>19619</v>
       </c>
       <c r="F414" s="2">
-        <v>17502</v>
+        <v>17808</v>
       </c>
       <c r="G414" s="2">
-        <v>22176</v>
+        <v>21183</v>
       </c>
       <c r="H414" s="3">
         <v>0.97</v>
       </c>
       <c r="I414" s="3">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="J414" s="3">
+        <v>1.02</v>
+      </c>
+      <c r="K414" s="3">
         <v>1.04</v>
       </c>
-      <c r="K414" s="3">
-        <v>1.05</v>
-      </c>
       <c r="L414" s="3">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="M414" s="3">
-        <v>1.1100000000000001</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="415" spans="1:13">
@@ -18831,40 +18834,40 @@
         <v>432</v>
       </c>
       <c r="B415" s="2">
-        <v>24536</v>
+        <v>23735</v>
       </c>
       <c r="C415" s="2">
-        <v>19247</v>
+        <v>20330</v>
       </c>
       <c r="D415" s="2">
-        <v>29448</v>
+        <v>26584</v>
       </c>
       <c r="E415" s="2">
-        <v>21183</v>
+        <v>20792</v>
       </c>
       <c r="F415" s="2">
-        <v>17924</v>
+        <v>18418</v>
       </c>
       <c r="G415" s="2">
-        <v>24434</v>
+        <v>22792</v>
       </c>
       <c r="H415" s="3">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="I415" s="3">
-        <v>0.94</v>
+        <v>0.96</v>
       </c>
       <c r="J415" s="3">
-        <v>1.1200000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="K415" s="3">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="L415" s="3">
         <v>1</v>
       </c>
       <c r="M415" s="3">
-        <v>1.1299999999999999</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="416" spans="1:13">
@@ -18872,40 +18875,40 @@
         <v>433</v>
       </c>
       <c r="B416" s="2">
-        <v>24135</v>
+        <v>22213</v>
       </c>
       <c r="C416" s="2">
-        <v>16684</v>
+        <v>17395</v>
       </c>
       <c r="D416" s="2">
-        <v>31201</v>
+        <v>26882</v>
       </c>
       <c r="E416" s="2">
-        <v>22230</v>
+        <v>21348</v>
       </c>
       <c r="F416" s="2">
-        <v>17597</v>
+        <v>18227</v>
       </c>
       <c r="G416" s="2">
-        <v>26757</v>
+        <v>24155</v>
       </c>
       <c r="H416" s="3">
-        <v>1.1100000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="I416" s="3">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="J416" s="3">
-        <v>1.22</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="K416" s="3">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="L416" s="3">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="M416" s="3">
-        <v>1.1499999999999999</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="417" spans="1:13">
@@ -18913,40 +18916,81 @@
         <v>434</v>
       </c>
       <c r="B417" s="2">
-        <v>22368</v>
+        <v>20284</v>
       </c>
       <c r="C417" s="2">
-        <v>14989</v>
+        <v>14454</v>
       </c>
       <c r="D417" s="2">
-        <v>29828</v>
+        <v>25907</v>
       </c>
       <c r="E417" s="2">
-        <v>22968</v>
+        <v>21603</v>
       </c>
       <c r="F417" s="2">
-        <v>17103</v>
+        <v>17484</v>
       </c>
       <c r="G417" s="2">
-        <v>28824</v>
+        <v>25470</v>
       </c>
       <c r="H417" s="3">
-        <v>1.17</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I417" s="3">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="J417" s="3">
-        <v>1.32</v>
-      </c>
-      <c r="K417" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="L417" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="M417" s="3" t="s">
-        <v>453</v>
+        <v>1.23</v>
+      </c>
+      <c r="K417" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="L417" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="M417" s="3">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="418" spans="1:13">
+      <c r="A418" t="s">
+        <v>435</v>
+      </c>
+      <c r="B418" s="2">
+        <v>17763</v>
+      </c>
+      <c r="C418" s="2">
+        <v>11684</v>
+      </c>
+      <c r="D418" s="2">
+        <v>24243</v>
+      </c>
+      <c r="E418" s="2">
+        <v>20999</v>
+      </c>
+      <c r="F418" s="2">
+        <v>15966</v>
+      </c>
+      <c r="G418" s="2">
+        <v>25904</v>
+      </c>
+      <c r="H418" s="3">
+        <v>1.07</v>
+      </c>
+      <c r="I418" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="J418" s="3">
+        <v>1.22</v>
+      </c>
+      <c r="K418" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="L418" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="M418" s="3" t="s">
+        <v>454</v>
       </c>
     </row>
   </sheetData>

--- a/data/rki_rwert_excel.xlsx
+++ b/data/rki_rwert_excel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4054224-2E5B-4822-A4B2-1332A555F077}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2247320-0BE7-4862-B107-39B8831D7C4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18765" windowHeight="7320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="458">
   <si>
     <t>Erläuterung</t>
   </si>
@@ -33,7 +33,7 @@
     <t/>
   </si>
   <si>
-    <t>Datenstand: 2021-04-26, 00:00 Uhr</t>
+    <t>Datenstand: 2021-04-27, 00:00 Uhr</t>
   </si>
   <si>
     <t/>
@@ -48,7 +48,7 @@
     <t/>
   </si>
   <si>
-    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 2021-04-26 dargestellten Nowcasting-Kurve.</t>
+    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 2021-04-27 dargestellten Nowcasting-Kurve.</t>
   </si>
   <si>
     <t>Der letzte Schätzwert der Reproduktionszahl R wird ebenfalls im gleichen Lagebericht erwähnt.</t>
@@ -1326,6 +1326,9 @@
     <t>22.04.2021</t>
   </si>
   <si>
+    <t>23.04.2021</t>
+  </si>
+  <si>
     <t>Punktschätzer der Anzahl Neuerkrankungen (ohne Glättung)</t>
   </si>
   <si>
@@ -1338,21 +1341,12 @@
     <t>Obere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen</t>
   </si>
   <si>
-    <t>Punktschätzer der 4-Tage R-Wert</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
-    <t>Untere Grenze des 95%-Prädiktionsintervalls der 4-Tage R-Wert</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
-    <t>Obere Grenze des 95%-Prädiktionsintervalls der 4-Tage R-Wert</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
@@ -1365,18 +1359,12 @@
     <t>.</t>
   </si>
   <si>
-    <t>Untere Grenze des 95%-Prädiktionsintervalls des 7-Tage-R Wertes</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
     <t>.</t>
   </si>
   <si>
-    <t>Obere Grenze des 95%-Prädiktionsintervalls des 7-Tage-R Wertes</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
@@ -1386,7 +1374,22 @@
     <t>Untere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glättung)</t>
   </si>
   <si>
-    <t>Obere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glättung)</t>
+    <t>Obere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glätttung)</t>
+  </si>
+  <si>
+    <t>Untere Grenze des 95%-Prädiktionsintervalls des 4-Tage-R-Wertes</t>
+  </si>
+  <si>
+    <t>Punktschätzer des 4-Tage-R-Wertes</t>
+  </si>
+  <si>
+    <t>Obere Grenze des 95%-Prädiktionsintervalls des 4-Tage-R-Wertes</t>
+  </si>
+  <si>
+    <t>Untere Grenze des 95%-Prädiktionsintervalls des 7-Tage-R-Wertes</t>
+  </si>
+  <si>
+    <t>Obere Grenze des 95%-Prädiktionsintervalls des 7-Tage-R-Wertes</t>
   </si>
 </sst>
 </file>
@@ -1844,56 +1847,57 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M418"/>
+  <dimension ref="A1:M419"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:M418"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:M419"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="13" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="90" customHeight="1">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="102.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>449</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1922,19 +1926,19 @@
         <v>441</v>
       </c>
       <c r="I2" t="s">
+        <v>442</v>
+      </c>
+      <c r="J2" t="s">
         <v>443</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>445</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>447</v>
       </c>
-      <c r="L2" t="s">
-        <v>450</v>
-      </c>
       <c r="M2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1963,19 +1967,19 @@
         <v>441</v>
       </c>
       <c r="I3" t="s">
+        <v>442</v>
+      </c>
+      <c r="J3" t="s">
         <v>443</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>445</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>447</v>
       </c>
-      <c r="L3" t="s">
-        <v>450</v>
-      </c>
       <c r="M3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2004,19 +2008,19 @@
         <v>441</v>
       </c>
       <c r="I4" t="s">
+        <v>442</v>
+      </c>
+      <c r="J4" t="s">
         <v>443</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>445</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>447</v>
       </c>
-      <c r="L4" t="s">
-        <v>450</v>
-      </c>
       <c r="M4" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2045,19 +2049,19 @@
         <v>441</v>
       </c>
       <c r="I5" t="s">
+        <v>442</v>
+      </c>
+      <c r="J5" t="s">
         <v>443</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>445</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>447</v>
       </c>
-      <c r="L5" t="s">
-        <v>450</v>
-      </c>
       <c r="M5" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -16462,7 +16466,7 @@
         <v>7281</v>
       </c>
       <c r="D357" s="2">
-        <v>7492</v>
+        <v>7491</v>
       </c>
       <c r="E357" s="2">
         <v>7707</v>
@@ -16497,13 +16501,13 @@
         <v>375</v>
       </c>
       <c r="B358" s="2">
-        <v>7125</v>
+        <v>7126</v>
       </c>
       <c r="C358" s="2">
-        <v>7024</v>
+        <v>7026</v>
       </c>
       <c r="D358" s="2">
-        <v>7233</v>
+        <v>7234</v>
       </c>
       <c r="E358" s="2">
         <v>7470</v>
@@ -16541,10 +16545,10 @@
         <v>8956</v>
       </c>
       <c r="C359" s="2">
-        <v>8825</v>
+        <v>8824</v>
       </c>
       <c r="D359" s="2">
-        <v>9068</v>
+        <v>9063</v>
       </c>
       <c r="E359" s="2">
         <v>7779</v>
@@ -16553,7 +16557,7 @@
         <v>7667</v>
       </c>
       <c r="G359" s="2">
-        <v>7887</v>
+        <v>7886</v>
       </c>
       <c r="H359" s="3">
         <v>0.96</v>
@@ -16579,22 +16583,22 @@
         <v>377</v>
       </c>
       <c r="B360" s="2">
-        <v>8501</v>
+        <v>8500</v>
       </c>
       <c r="C360" s="2">
-        <v>8389</v>
+        <v>8387</v>
       </c>
       <c r="D360" s="2">
-        <v>8602</v>
+        <v>8599</v>
       </c>
       <c r="E360" s="2">
         <v>7991</v>
       </c>
       <c r="F360" s="2">
-        <v>7880</v>
+        <v>7879</v>
       </c>
       <c r="G360" s="2">
-        <v>8098</v>
+        <v>8097</v>
       </c>
       <c r="H360" s="3">
         <v>1.01</v>
@@ -16623,10 +16627,10 @@
         <v>8089</v>
       </c>
       <c r="C361" s="2">
-        <v>7989</v>
+        <v>7991</v>
       </c>
       <c r="D361" s="2">
-        <v>8205</v>
+        <v>8207</v>
       </c>
       <c r="E361" s="2">
         <v>8168</v>
@@ -16635,7 +16639,7 @@
         <v>8057</v>
       </c>
       <c r="G361" s="2">
-        <v>8277</v>
+        <v>8276</v>
       </c>
       <c r="H361" s="3">
         <v>1.06</v>
@@ -16661,10 +16665,10 @@
         <v>379</v>
       </c>
       <c r="B362" s="2">
-        <v>7659</v>
+        <v>7658</v>
       </c>
       <c r="C362" s="2">
-        <v>7547</v>
+        <v>7549</v>
       </c>
       <c r="D362" s="2">
         <v>7771</v>
@@ -16673,10 +16677,10 @@
         <v>8301</v>
       </c>
       <c r="F362" s="2">
-        <v>8187</v>
+        <v>8188</v>
       </c>
       <c r="G362" s="2">
-        <v>8411</v>
+        <v>8410</v>
       </c>
       <c r="H362" s="3">
         <v>1.1100000000000001</v>
@@ -16705,19 +16709,19 @@
         <v>7940</v>
       </c>
       <c r="C363" s="2">
-        <v>7832</v>
+        <v>7835</v>
       </c>
       <c r="D363" s="2">
-        <v>8061</v>
+        <v>8054</v>
       </c>
       <c r="E363" s="2">
         <v>8047</v>
       </c>
       <c r="F363" s="2">
-        <v>7939</v>
+        <v>7940</v>
       </c>
       <c r="G363" s="2">
-        <v>8160</v>
+        <v>8158</v>
       </c>
       <c r="H363" s="3">
         <v>1.03</v>
@@ -16746,19 +16750,19 @@
         <v>7181</v>
       </c>
       <c r="C364" s="2">
-        <v>7083</v>
+        <v>7084</v>
       </c>
       <c r="D364" s="2">
-        <v>7282</v>
+        <v>7284</v>
       </c>
       <c r="E364" s="2">
         <v>7717</v>
       </c>
       <c r="F364" s="2">
-        <v>7613</v>
+        <v>7615</v>
       </c>
       <c r="G364" s="2">
-        <v>7830</v>
+        <v>7829</v>
       </c>
       <c r="H364" s="3">
         <v>0.97</v>
@@ -16790,16 +16794,16 @@
         <v>7229</v>
       </c>
       <c r="D365" s="2">
-        <v>7431</v>
+        <v>7433</v>
       </c>
       <c r="E365" s="2">
         <v>7531</v>
       </c>
       <c r="F365" s="2">
-        <v>7422</v>
+        <v>7424</v>
       </c>
       <c r="G365" s="2">
-        <v>7636</v>
+        <v>7635</v>
       </c>
       <c r="H365" s="3">
         <v>0.92</v>
@@ -16825,13 +16829,13 @@
         <v>383</v>
       </c>
       <c r="B366" s="2">
-        <v>9527</v>
+        <v>9529</v>
       </c>
       <c r="C366" s="2">
-        <v>9408</v>
+        <v>9405</v>
       </c>
       <c r="D366" s="2">
-        <v>9651</v>
+        <v>9649</v>
       </c>
       <c r="E366" s="2">
         <v>7998</v>
@@ -16840,7 +16844,7 @@
         <v>7888</v>
       </c>
       <c r="G366" s="2">
-        <v>8106</v>
+        <v>8105</v>
       </c>
       <c r="H366" s="3">
         <v>0.96</v>
@@ -16866,16 +16870,16 @@
         <v>384</v>
       </c>
       <c r="B367" s="2">
-        <v>8912</v>
+        <v>8913</v>
       </c>
       <c r="C367" s="2">
-        <v>8810</v>
+        <v>8809</v>
       </c>
       <c r="D367" s="2">
-        <v>9038</v>
+        <v>9037</v>
       </c>
       <c r="E367" s="2">
-        <v>8241</v>
+        <v>8242</v>
       </c>
       <c r="F367" s="2">
         <v>8132</v>
@@ -16907,19 +16911,19 @@
         <v>385</v>
       </c>
       <c r="B368" s="2">
-        <v>8995</v>
+        <v>8996</v>
       </c>
       <c r="C368" s="2">
-        <v>8863</v>
+        <v>8862</v>
       </c>
       <c r="D368" s="2">
-        <v>9108</v>
+        <v>9110</v>
       </c>
       <c r="E368" s="2">
         <v>8695</v>
       </c>
       <c r="F368" s="2">
-        <v>8577</v>
+        <v>8576</v>
       </c>
       <c r="G368" s="2">
         <v>8807</v>
@@ -16948,19 +16952,19 @@
         <v>386</v>
       </c>
       <c r="B369" s="2">
-        <v>8647</v>
+        <v>8646</v>
       </c>
       <c r="C369" s="2">
         <v>8531</v>
       </c>
       <c r="D369" s="2">
-        <v>8756</v>
+        <v>8757</v>
       </c>
       <c r="E369" s="2">
         <v>9021</v>
       </c>
       <c r="F369" s="2">
-        <v>8903</v>
+        <v>8902</v>
       </c>
       <c r="G369" s="2">
         <v>9138</v>
@@ -16981,7 +16985,7 @@
         <v>1.06</v>
       </c>
       <c r="M369" s="3">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="370" spans="1:13">
@@ -16989,13 +16993,13 @@
         <v>387</v>
       </c>
       <c r="B370" s="2">
-        <v>9019</v>
+        <v>9017</v>
       </c>
       <c r="C370" s="2">
-        <v>8915</v>
+        <v>8916</v>
       </c>
       <c r="D370" s="2">
-        <v>9152</v>
+        <v>9147</v>
       </c>
       <c r="E370" s="2">
         <v>8893</v>
@@ -17030,22 +17034,22 @@
         <v>388</v>
       </c>
       <c r="B371" s="2">
-        <v>8901</v>
+        <v>8902</v>
       </c>
       <c r="C371" s="2">
         <v>8775</v>
       </c>
       <c r="D371" s="2">
-        <v>9025</v>
+        <v>9030</v>
       </c>
       <c r="E371" s="2">
-        <v>8891</v>
+        <v>8890</v>
       </c>
       <c r="F371" s="2">
         <v>8771</v>
       </c>
       <c r="G371" s="2">
-        <v>9010</v>
+        <v>9011</v>
       </c>
       <c r="H371" s="3">
         <v>1.08</v>
@@ -17074,19 +17078,19 @@
         <v>9032</v>
       </c>
       <c r="C372" s="2">
+        <v>8892</v>
+      </c>
+      <c r="D372" s="2">
+        <v>9150</v>
+      </c>
+      <c r="E372" s="2">
         <v>8899</v>
       </c>
-      <c r="D372" s="2">
-        <v>9157</v>
-      </c>
-      <c r="E372" s="2">
-        <v>8900</v>
-      </c>
       <c r="F372" s="2">
-        <v>8780</v>
+        <v>8778</v>
       </c>
       <c r="G372" s="2">
-        <v>9022</v>
+        <v>9021</v>
       </c>
       <c r="H372" s="3">
         <v>1.02</v>
@@ -17115,7 +17119,7 @@
         <v>11793</v>
       </c>
       <c r="C373" s="2">
-        <v>11665</v>
+        <v>11658</v>
       </c>
       <c r="D373" s="2">
         <v>11934</v>
@@ -17124,10 +17128,10 @@
         <v>9686</v>
       </c>
       <c r="F373" s="2">
-        <v>9563</v>
+        <v>9560</v>
       </c>
       <c r="G373" s="2">
-        <v>9817</v>
+        <v>9815</v>
       </c>
       <c r="H373" s="3">
         <v>1.07</v>
@@ -17153,22 +17157,22 @@
         <v>391</v>
       </c>
       <c r="B374" s="2">
-        <v>11501</v>
+        <v>11498</v>
       </c>
       <c r="C374" s="2">
-        <v>11354</v>
+        <v>11364</v>
       </c>
       <c r="D374" s="2">
-        <v>11633</v>
+        <v>11631</v>
       </c>
       <c r="E374" s="2">
-        <v>10307</v>
+        <v>10306</v>
       </c>
       <c r="F374" s="2">
-        <v>10173</v>
+        <v>10172</v>
       </c>
       <c r="G374" s="2">
-        <v>10437</v>
+        <v>10436</v>
       </c>
       <c r="H374" s="3">
         <v>1.1599999999999999</v>
@@ -17194,22 +17198,22 @@
         <v>392</v>
       </c>
       <c r="B375" s="2">
-        <v>11730</v>
+        <v>11731</v>
       </c>
       <c r="C375" s="2">
-        <v>11590</v>
+        <v>11602</v>
       </c>
       <c r="D375" s="2">
-        <v>11863</v>
+        <v>11843</v>
       </c>
       <c r="E375" s="2">
-        <v>11014</v>
+        <v>11013</v>
       </c>
       <c r="F375" s="2">
-        <v>10877</v>
+        <v>10879</v>
       </c>
       <c r="G375" s="2">
-        <v>11146</v>
+        <v>11139</v>
       </c>
       <c r="H375" s="3">
         <v>1.24</v>
@@ -17235,28 +17239,28 @@
         <v>393</v>
       </c>
       <c r="B376" s="2">
-        <v>11497</v>
+        <v>11500</v>
       </c>
       <c r="C376" s="2">
-        <v>11349</v>
+        <v>11367</v>
       </c>
       <c r="D376" s="2">
-        <v>11647</v>
+        <v>11667</v>
       </c>
       <c r="E376" s="2">
         <v>11630</v>
       </c>
       <c r="F376" s="2">
-        <v>11489</v>
+        <v>11497</v>
       </c>
       <c r="G376" s="2">
-        <v>11769</v>
+        <v>11768</v>
       </c>
       <c r="H376" s="3">
         <v>1.31</v>
       </c>
       <c r="I376" s="3">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="J376" s="3">
         <v>1.32</v>
@@ -17276,22 +17280,22 @@
         <v>394</v>
       </c>
       <c r="B377" s="2">
-        <v>12059</v>
+        <v>12055</v>
       </c>
       <c r="C377" s="2">
-        <v>11927</v>
+        <v>11904</v>
       </c>
       <c r="D377" s="2">
-        <v>12203</v>
+        <v>12194</v>
       </c>
       <c r="E377" s="2">
-        <v>11697</v>
+        <v>11696</v>
       </c>
       <c r="F377" s="2">
-        <v>11555</v>
+        <v>11559</v>
       </c>
       <c r="G377" s="2">
-        <v>11836</v>
+        <v>11833</v>
       </c>
       <c r="H377" s="3">
         <v>1.21</v>
@@ -17317,22 +17321,22 @@
         <v>395</v>
       </c>
       <c r="B378" s="2">
-        <v>11831</v>
+        <v>11826</v>
       </c>
       <c r="C378" s="2">
-        <v>11694</v>
+        <v>11693</v>
       </c>
       <c r="D378" s="2">
-        <v>11961</v>
+        <v>11977</v>
       </c>
       <c r="E378" s="2">
-        <v>11779</v>
+        <v>11778</v>
       </c>
       <c r="F378" s="2">
-        <v>11640</v>
+        <v>11641</v>
       </c>
       <c r="G378" s="2">
-        <v>11918</v>
+        <v>11920</v>
       </c>
       <c r="H378" s="3">
         <v>1.1399999999999999</v>
@@ -17358,22 +17362,22 @@
         <v>396</v>
       </c>
       <c r="B379" s="2">
-        <v>12082</v>
+        <v>12085</v>
       </c>
       <c r="C379" s="2">
-        <v>11962</v>
+        <v>11934</v>
       </c>
       <c r="D379" s="2">
-        <v>12212</v>
+        <v>12207</v>
       </c>
       <c r="E379" s="2">
         <v>11867</v>
       </c>
       <c r="F379" s="2">
-        <v>11733</v>
+        <v>11724</v>
       </c>
       <c r="G379" s="2">
-        <v>12006</v>
+        <v>12011</v>
       </c>
       <c r="H379" s="3">
         <v>1.08</v>
@@ -17399,22 +17403,22 @@
         <v>397</v>
       </c>
       <c r="B380" s="2">
-        <v>15434</v>
+        <v>15426</v>
       </c>
       <c r="C380" s="2">
-        <v>15285</v>
+        <v>15296</v>
       </c>
       <c r="D380" s="2">
-        <v>15596</v>
+        <v>15571</v>
       </c>
       <c r="E380" s="2">
-        <v>12851</v>
+        <v>12848</v>
       </c>
       <c r="F380" s="2">
-        <v>12717</v>
+        <v>12707</v>
       </c>
       <c r="G380" s="2">
-        <v>12993</v>
+        <v>12987</v>
       </c>
       <c r="H380" s="3">
         <v>1.1000000000000001</v>
@@ -17440,22 +17444,22 @@
         <v>398</v>
       </c>
       <c r="B381" s="2">
-        <v>14887</v>
+        <v>14880</v>
       </c>
       <c r="C381" s="2">
-        <v>14749</v>
+        <v>14737</v>
       </c>
       <c r="D381" s="2">
-        <v>15059</v>
+        <v>15020</v>
       </c>
       <c r="E381" s="2">
-        <v>13558</v>
+        <v>13554</v>
       </c>
       <c r="F381" s="2">
-        <v>13422</v>
+        <v>13415</v>
       </c>
       <c r="G381" s="2">
-        <v>13707</v>
+        <v>13694</v>
       </c>
       <c r="H381" s="3">
         <v>1.1599999999999999</v>
@@ -17481,22 +17485,22 @@
         <v>399</v>
       </c>
       <c r="B382" s="2">
-        <v>15023</v>
+        <v>15030</v>
       </c>
       <c r="C382" s="2">
-        <v>14862</v>
+        <v>14850</v>
       </c>
       <c r="D382" s="2">
-        <v>15228</v>
+        <v>15252</v>
       </c>
       <c r="E382" s="2">
-        <v>14356</v>
+        <v>14355</v>
       </c>
       <c r="F382" s="2">
-        <v>14214</v>
+        <v>14204</v>
       </c>
       <c r="G382" s="2">
-        <v>14524</v>
+        <v>14512</v>
       </c>
       <c r="H382" s="3">
         <v>1.22</v>
@@ -17522,22 +17526,22 @@
         <v>400</v>
       </c>
       <c r="B383" s="2">
-        <v>14266</v>
+        <v>14259</v>
       </c>
       <c r="C383" s="2">
-        <v>14102</v>
+        <v>14091</v>
       </c>
       <c r="D383" s="2">
-        <v>14394</v>
+        <v>14391</v>
       </c>
       <c r="E383" s="2">
-        <v>14902</v>
+        <v>14899</v>
       </c>
       <c r="F383" s="2">
-        <v>14749</v>
+        <v>14743</v>
       </c>
       <c r="G383" s="2">
-        <v>15069</v>
+        <v>15058</v>
       </c>
       <c r="H383" s="3">
         <v>1.26</v>
@@ -17563,22 +17567,22 @@
         <v>401</v>
       </c>
       <c r="B384" s="2">
-        <v>14836</v>
+        <v>14841</v>
       </c>
       <c r="C384" s="2">
-        <v>14684</v>
+        <v>14698</v>
       </c>
       <c r="D384" s="2">
-        <v>14962</v>
+        <v>15011</v>
       </c>
       <c r="E384" s="2">
         <v>14753</v>
       </c>
       <c r="F384" s="2">
-        <v>14599</v>
+        <v>14594</v>
       </c>
       <c r="G384" s="2">
-        <v>14911</v>
+        <v>14918</v>
       </c>
       <c r="H384" s="3">
         <v>1.1499999999999999</v>
@@ -17604,22 +17608,22 @@
         <v>402</v>
       </c>
       <c r="B385" s="2">
-        <v>14997</v>
+        <v>14990</v>
       </c>
       <c r="C385" s="2">
-        <v>14860</v>
+        <v>14818</v>
       </c>
       <c r="D385" s="2">
-        <v>15138</v>
+        <v>15164</v>
       </c>
       <c r="E385" s="2">
         <v>14780</v>
       </c>
       <c r="F385" s="2">
-        <v>14627</v>
+        <v>14614</v>
       </c>
       <c r="G385" s="2">
-        <v>14930</v>
+        <v>14954</v>
       </c>
       <c r="H385" s="3">
         <v>1.0900000000000001</v>
@@ -17645,25 +17649,25 @@
         <v>403</v>
       </c>
       <c r="B386" s="2">
-        <v>15340</v>
+        <v>15333</v>
       </c>
       <c r="C386" s="2">
-        <v>15186</v>
+        <v>15191</v>
       </c>
       <c r="D386" s="2">
-        <v>15492</v>
+        <v>15502</v>
       </c>
       <c r="E386" s="2">
-        <v>14860</v>
+        <v>14856</v>
       </c>
       <c r="F386" s="2">
-        <v>14708</v>
+        <v>14699</v>
       </c>
       <c r="G386" s="2">
-        <v>14996</v>
+        <v>15017</v>
       </c>
       <c r="H386" s="3">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="I386" s="3">
         <v>1.03</v>
@@ -17686,22 +17690,22 @@
         <v>404</v>
       </c>
       <c r="B387" s="2">
-        <v>18836</v>
+        <v>18805</v>
       </c>
       <c r="C387" s="2">
-        <v>18670</v>
+        <v>18625</v>
       </c>
       <c r="D387" s="2">
-        <v>18992</v>
+        <v>18942</v>
       </c>
       <c r="E387" s="2">
-        <v>16002</v>
+        <v>15992</v>
       </c>
       <c r="F387" s="2">
-        <v>15850</v>
+        <v>15833</v>
       </c>
       <c r="G387" s="2">
-        <v>16146</v>
+        <v>16154</v>
       </c>
       <c r="H387" s="3">
         <v>1.07</v>
@@ -17727,22 +17731,22 @@
         <v>405</v>
       </c>
       <c r="B388" s="2">
-        <v>18475</v>
+        <v>18447</v>
       </c>
       <c r="C388" s="2">
-        <v>18247</v>
+        <v>18291</v>
       </c>
       <c r="D388" s="2">
-        <v>18632</v>
+        <v>18589</v>
       </c>
       <c r="E388" s="2">
-        <v>16912</v>
+        <v>16894</v>
       </c>
       <c r="F388" s="2">
-        <v>16741</v>
+        <v>16731</v>
       </c>
       <c r="G388" s="2">
-        <v>17063</v>
+        <v>17049</v>
       </c>
       <c r="H388" s="3">
         <v>1.1499999999999999</v>
@@ -17768,28 +17772,28 @@
         <v>406</v>
       </c>
       <c r="B389" s="2">
-        <v>17875</v>
+        <v>17873</v>
       </c>
       <c r="C389" s="2">
-        <v>17657</v>
+        <v>17670</v>
       </c>
       <c r="D389" s="2">
-        <v>18036</v>
+        <v>18062</v>
       </c>
       <c r="E389" s="2">
-        <v>17632</v>
+        <v>17614</v>
       </c>
       <c r="F389" s="2">
-        <v>17440</v>
+        <v>17444</v>
       </c>
       <c r="G389" s="2">
-        <v>17788</v>
+        <v>17774</v>
       </c>
       <c r="H389" s="3">
         <v>1.19</v>
       </c>
       <c r="I389" s="3">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="J389" s="3">
         <v>1.2</v>
@@ -17809,22 +17813,22 @@
         <v>407</v>
       </c>
       <c r="B390" s="2">
-        <v>16669</v>
+        <v>16685</v>
       </c>
       <c r="C390" s="2">
-        <v>16484</v>
+        <v>16505</v>
       </c>
       <c r="D390" s="2">
-        <v>16850</v>
+        <v>16859</v>
       </c>
       <c r="E390" s="2">
-        <v>17964</v>
+        <v>17953</v>
       </c>
       <c r="F390" s="2">
-        <v>17764</v>
+        <v>17773</v>
       </c>
       <c r="G390" s="2">
-        <v>18127</v>
+        <v>18113</v>
       </c>
       <c r="H390" s="3">
         <v>1.21</v>
@@ -17850,22 +17854,22 @@
         <v>408</v>
       </c>
       <c r="B391" s="2">
-        <v>16321</v>
+        <v>16335</v>
       </c>
       <c r="C391" s="2">
-        <v>16167</v>
+        <v>16192</v>
       </c>
       <c r="D391" s="2">
-        <v>16454</v>
+        <v>16481</v>
       </c>
       <c r="E391" s="2">
         <v>17335</v>
       </c>
       <c r="F391" s="2">
-        <v>17139</v>
+        <v>17164</v>
       </c>
       <c r="G391" s="2">
-        <v>17493</v>
+        <v>17498</v>
       </c>
       <c r="H391" s="3">
         <v>1.08</v>
@@ -17891,22 +17895,22 @@
         <v>409</v>
       </c>
       <c r="B392" s="2">
-        <v>15178</v>
+        <v>15172</v>
       </c>
       <c r="C392" s="2">
         <v>15017</v>
       </c>
       <c r="D392" s="2">
-        <v>15359</v>
+        <v>15357</v>
       </c>
       <c r="E392" s="2">
-        <v>16511</v>
+        <v>16516</v>
       </c>
       <c r="F392" s="2">
-        <v>16331</v>
+        <v>16346</v>
       </c>
       <c r="G392" s="2">
-        <v>16675</v>
+        <v>16690</v>
       </c>
       <c r="H392" s="3">
         <v>0.98</v>
@@ -17932,28 +17936,28 @@
         <v>410</v>
       </c>
       <c r="B393" s="2">
-        <v>14705</v>
+        <v>14726</v>
       </c>
       <c r="C393" s="2">
-        <v>14477</v>
+        <v>14514</v>
       </c>
       <c r="D393" s="2">
-        <v>14944</v>
+        <v>14921</v>
       </c>
       <c r="E393" s="2">
-        <v>15718</v>
+        <v>15730</v>
       </c>
       <c r="F393" s="2">
-        <v>15536</v>
+        <v>15557</v>
       </c>
       <c r="G393" s="2">
-        <v>15902</v>
+        <v>15904</v>
       </c>
       <c r="H393" s="3">
         <v>0.89</v>
       </c>
       <c r="I393" s="3">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="J393" s="3">
         <v>0.9</v>
@@ -17973,22 +17977,22 @@
         <v>411</v>
       </c>
       <c r="B394" s="2">
-        <v>18246</v>
+        <v>18208</v>
       </c>
       <c r="C394" s="2">
-        <v>18001</v>
+        <v>17980</v>
       </c>
       <c r="D394" s="2">
-        <v>18461</v>
+        <v>18412</v>
       </c>
       <c r="E394" s="2">
-        <v>16113</v>
+        <v>16110</v>
       </c>
       <c r="F394" s="2">
-        <v>15915</v>
+        <v>15925</v>
       </c>
       <c r="G394" s="2">
-        <v>16304</v>
+        <v>16293</v>
       </c>
       <c r="H394" s="3">
         <v>0.9</v>
@@ -18014,22 +18018,22 @@
         <v>412</v>
       </c>
       <c r="B395" s="2">
-        <v>17007</v>
+        <v>17002</v>
       </c>
       <c r="C395" s="2">
-        <v>16778</v>
+        <v>16822</v>
       </c>
       <c r="D395" s="2">
-        <v>17290</v>
+        <v>17195</v>
       </c>
       <c r="E395" s="2">
-        <v>16284</v>
+        <v>16277</v>
       </c>
       <c r="F395" s="2">
-        <v>16068</v>
+        <v>16083</v>
       </c>
       <c r="G395" s="2">
-        <v>16513</v>
+        <v>16471</v>
       </c>
       <c r="H395" s="3">
         <v>0.94</v>
@@ -18055,31 +18059,31 @@
         <v>413</v>
       </c>
       <c r="B396" s="2">
-        <v>15827</v>
+        <v>15840</v>
       </c>
       <c r="C396" s="2">
-        <v>15688</v>
+        <v>15618</v>
       </c>
       <c r="D396" s="2">
-        <v>16018</v>
+        <v>16081</v>
       </c>
       <c r="E396" s="2">
-        <v>16446</v>
+        <v>16444</v>
       </c>
       <c r="F396" s="2">
-        <v>16236</v>
+        <v>16233</v>
       </c>
       <c r="G396" s="2">
-        <v>16678</v>
+        <v>16652</v>
       </c>
       <c r="H396" s="3">
         <v>1</v>
       </c>
       <c r="I396" s="3">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="J396" s="3">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K396" s="3">
         <v>0.96</v>
@@ -18096,22 +18100,22 @@
         <v>414</v>
       </c>
       <c r="B397" s="2">
-        <v>16597</v>
+        <v>16588</v>
       </c>
       <c r="C397" s="2">
-        <v>16339</v>
+        <v>16403</v>
       </c>
       <c r="D397" s="2">
-        <v>16856</v>
+        <v>16775</v>
       </c>
       <c r="E397" s="2">
-        <v>16919</v>
+        <v>16909</v>
       </c>
       <c r="F397" s="2">
-        <v>16702</v>
+        <v>16706</v>
       </c>
       <c r="G397" s="2">
-        <v>17156</v>
+        <v>17116</v>
       </c>
       <c r="H397" s="3">
         <v>1.08</v>
@@ -18120,7 +18124,7 @@
         <v>1.07</v>
       </c>
       <c r="J397" s="3">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="K397" s="3">
         <v>0.96</v>
@@ -18137,22 +18141,22 @@
         <v>415</v>
       </c>
       <c r="B398" s="2">
-        <v>15192</v>
+        <v>15179</v>
       </c>
       <c r="C398" s="2">
-        <v>14907</v>
+        <v>14936</v>
       </c>
       <c r="D398" s="2">
-        <v>15457</v>
+        <v>15387</v>
       </c>
       <c r="E398" s="2">
-        <v>16156</v>
+        <v>16152</v>
       </c>
       <c r="F398" s="2">
-        <v>15928</v>
+        <v>15945</v>
       </c>
       <c r="G398" s="2">
-        <v>16405</v>
+        <v>16360</v>
       </c>
       <c r="H398" s="3">
         <v>1</v>
@@ -18178,28 +18182,28 @@
         <v>416</v>
       </c>
       <c r="B399" s="2">
-        <v>14475</v>
+        <v>14461</v>
       </c>
       <c r="C399" s="2">
-        <v>14259</v>
+        <v>14226</v>
       </c>
       <c r="D399" s="2">
-        <v>14684</v>
+        <v>14683</v>
       </c>
       <c r="E399" s="2">
-        <v>15523</v>
+        <v>15517</v>
       </c>
       <c r="F399" s="2">
-        <v>15298</v>
+        <v>15296</v>
       </c>
       <c r="G399" s="2">
-        <v>15754</v>
+        <v>15732</v>
       </c>
       <c r="H399" s="3">
         <v>0.95</v>
       </c>
       <c r="I399" s="3">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="J399" s="3">
         <v>0.96</v>
@@ -18219,22 +18223,22 @@
         <v>417</v>
       </c>
       <c r="B400" s="2">
-        <v>14664</v>
+        <v>14651</v>
       </c>
       <c r="C400" s="2">
-        <v>14368</v>
+        <v>14414</v>
       </c>
       <c r="D400" s="2">
-        <v>14916</v>
+        <v>14920</v>
       </c>
       <c r="E400" s="2">
-        <v>15232</v>
+        <v>15220</v>
       </c>
       <c r="F400" s="2">
-        <v>14968</v>
+        <v>14995</v>
       </c>
       <c r="G400" s="2">
-        <v>15478</v>
+        <v>15441</v>
       </c>
       <c r="H400" s="3">
         <v>0.93</v>
@@ -18260,22 +18264,22 @@
         <v>418</v>
       </c>
       <c r="B401" s="2">
-        <v>16664</v>
+        <v>16680</v>
       </c>
       <c r="C401" s="2">
-        <v>16337</v>
+        <v>16385</v>
       </c>
       <c r="D401" s="2">
-        <v>17064</v>
+        <v>16924</v>
       </c>
       <c r="E401" s="2">
-        <v>15249</v>
+        <v>15243</v>
       </c>
       <c r="F401" s="2">
-        <v>14968</v>
+        <v>14990</v>
       </c>
       <c r="G401" s="2">
-        <v>15530</v>
+        <v>15479</v>
       </c>
       <c r="H401" s="3">
         <v>0.9</v>
@@ -18301,22 +18305,22 @@
         <v>419</v>
       </c>
       <c r="B402" s="2">
-        <v>19100</v>
+        <v>19109</v>
       </c>
       <c r="C402" s="2">
-        <v>18798</v>
+        <v>18790</v>
       </c>
       <c r="D402" s="2">
-        <v>19506</v>
+        <v>19540</v>
       </c>
       <c r="E402" s="2">
-        <v>16226</v>
+        <v>16225</v>
       </c>
       <c r="F402" s="2">
-        <v>15941</v>
+        <v>15954</v>
       </c>
       <c r="G402" s="2">
-        <v>16543</v>
+        <v>16517</v>
       </c>
       <c r="H402" s="3">
         <v>1</v>
@@ -18334,7 +18338,7 @@
         <v>1.03</v>
       </c>
       <c r="M402" s="3">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="403" spans="1:13">
@@ -18342,22 +18346,22 @@
         <v>420</v>
       </c>
       <c r="B403" s="2">
-        <v>19474</v>
+        <v>19460</v>
       </c>
       <c r="C403" s="2">
-        <v>18995</v>
+        <v>19016</v>
       </c>
       <c r="D403" s="2">
-        <v>19976</v>
+        <v>19869</v>
       </c>
       <c r="E403" s="2">
         <v>17475</v>
       </c>
       <c r="F403" s="2">
-        <v>17125</v>
+        <v>17152</v>
       </c>
       <c r="G403" s="2">
-        <v>17865</v>
+        <v>17814</v>
       </c>
       <c r="H403" s="3">
         <v>1.1299999999999999</v>
@@ -18383,28 +18387,28 @@
         <v>421</v>
       </c>
       <c r="B404" s="2">
-        <v>19017</v>
+        <v>19037</v>
       </c>
       <c r="C404" s="2">
-        <v>18599</v>
+        <v>18575</v>
       </c>
       <c r="D404" s="2">
-        <v>19507</v>
+        <v>19489</v>
       </c>
       <c r="E404" s="2">
-        <v>18564</v>
+        <v>18572</v>
       </c>
       <c r="F404" s="2">
-        <v>18182</v>
+        <v>18192</v>
       </c>
       <c r="G404" s="2">
-        <v>19013</v>
+        <v>18956</v>
       </c>
       <c r="H404" s="3">
         <v>1.22</v>
       </c>
       <c r="I404" s="3">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="J404" s="3">
         <v>1.24</v>
@@ -18424,28 +18428,28 @@
         <v>422</v>
       </c>
       <c r="B405" s="2">
-        <v>18713</v>
+        <v>18743</v>
       </c>
       <c r="C405" s="2">
-        <v>18224</v>
+        <v>18178</v>
       </c>
       <c r="D405" s="2">
-        <v>19195</v>
+        <v>19181</v>
       </c>
       <c r="E405" s="2">
-        <v>19076</v>
+        <v>19087</v>
       </c>
       <c r="F405" s="2">
-        <v>18654</v>
+        <v>18640</v>
       </c>
       <c r="G405" s="2">
-        <v>19546</v>
+        <v>19520</v>
       </c>
       <c r="H405" s="3">
         <v>1.25</v>
       </c>
       <c r="I405" s="3">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="J405" s="3">
         <v>1.27</v>
@@ -18454,7 +18458,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="L405" s="3">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="M405" s="3">
         <v>1.1299999999999999</v>
@@ -18465,22 +18469,22 @@
         <v>423</v>
       </c>
       <c r="B406" s="2">
-        <v>18621</v>
+        <v>18630</v>
       </c>
       <c r="C406" s="2">
-        <v>18034</v>
+        <v>18210</v>
       </c>
       <c r="D406" s="2">
-        <v>19165</v>
+        <v>19156</v>
       </c>
       <c r="E406" s="2">
-        <v>18956</v>
+        <v>18967</v>
       </c>
       <c r="F406" s="2">
-        <v>18463</v>
+        <v>18495</v>
       </c>
       <c r="G406" s="2">
-        <v>19461</v>
+        <v>19424</v>
       </c>
       <c r="H406" s="3">
         <v>1.17</v>
@@ -18489,13 +18493,13 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="J406" s="3">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="K406" s="3">
         <v>1.1200000000000001</v>
       </c>
       <c r="L406" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="M406" s="3">
         <v>1.1299999999999999</v>
@@ -18506,31 +18510,31 @@
         <v>424</v>
       </c>
       <c r="B407" s="2">
-        <v>18093</v>
+        <v>18021</v>
       </c>
       <c r="C407" s="2">
-        <v>17430</v>
+        <v>17373</v>
       </c>
       <c r="D407" s="2">
-        <v>18699</v>
+        <v>18516</v>
       </c>
       <c r="E407" s="2">
-        <v>18611</v>
+        <v>18608</v>
       </c>
       <c r="F407" s="2">
-        <v>18072</v>
+        <v>18084</v>
       </c>
       <c r="G407" s="2">
-        <v>19142</v>
+        <v>19086</v>
       </c>
       <c r="H407" s="3">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="I407" s="3">
         <v>1.05</v>
       </c>
       <c r="J407" s="3">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="K407" s="3">
         <v>1.1399999999999999</v>
@@ -18547,31 +18551,31 @@
         <v>425</v>
       </c>
       <c r="B408" s="2">
-        <v>22255</v>
+        <v>22179</v>
       </c>
       <c r="C408" s="2">
-        <v>21374</v>
+        <v>21431</v>
       </c>
       <c r="D408" s="2">
-        <v>23093</v>
+        <v>23090</v>
       </c>
       <c r="E408" s="2">
-        <v>19421</v>
+        <v>19393</v>
       </c>
       <c r="F408" s="2">
-        <v>18765</v>
+        <v>18798</v>
       </c>
       <c r="G408" s="2">
-        <v>20038</v>
+        <v>19986</v>
       </c>
       <c r="H408" s="3">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="I408" s="3">
         <v>1.02</v>
       </c>
       <c r="J408" s="3">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K408" s="3">
         <v>1.1200000000000001</v>
@@ -18588,37 +18592,37 @@
         <v>426</v>
       </c>
       <c r="B409" s="2">
-        <v>20805</v>
+        <v>20819</v>
       </c>
       <c r="C409" s="2">
-        <v>19698</v>
+        <v>19924</v>
       </c>
       <c r="D409" s="2">
-        <v>21889</v>
+        <v>21563</v>
       </c>
       <c r="E409" s="2">
-        <v>19944</v>
+        <v>19912</v>
       </c>
       <c r="F409" s="2">
-        <v>19134</v>
+        <v>19234</v>
       </c>
       <c r="G409" s="2">
-        <v>20711</v>
+        <v>20582</v>
       </c>
       <c r="H409" s="3">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="I409" s="3">
         <v>1.02</v>
       </c>
       <c r="J409" s="3">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K409" s="3">
         <v>1.0900000000000001</v>
       </c>
       <c r="L409" s="3">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="M409" s="3">
         <v>1.1000000000000001</v>
@@ -18629,31 +18633,31 @@
         <v>427</v>
       </c>
       <c r="B410" s="2">
-        <v>20102</v>
+        <v>19981</v>
       </c>
       <c r="C410" s="2">
-        <v>18832</v>
+        <v>18893</v>
       </c>
       <c r="D410" s="2">
-        <v>21275</v>
+        <v>20824</v>
       </c>
       <c r="E410" s="2">
-        <v>20314</v>
+        <v>20250</v>
       </c>
       <c r="F410" s="2">
-        <v>19333</v>
+        <v>19405</v>
       </c>
       <c r="G410" s="2">
-        <v>21239</v>
+        <v>20999</v>
       </c>
       <c r="H410" s="3">
         <v>1.07</v>
       </c>
       <c r="I410" s="3">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="J410" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="K410" s="3">
         <v>1.06</v>
@@ -18662,7 +18666,7 @@
         <v>1.04</v>
       </c>
       <c r="M410" s="3">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="411" spans="1:13">
@@ -18670,22 +18674,22 @@
         <v>428</v>
       </c>
       <c r="B411" s="2">
-        <v>19043</v>
+        <v>19055</v>
       </c>
       <c r="C411" s="2">
-        <v>17891</v>
+        <v>17948</v>
       </c>
       <c r="D411" s="2">
-        <v>20145</v>
+        <v>20118</v>
       </c>
       <c r="E411" s="2">
-        <v>20551</v>
+        <v>20509</v>
       </c>
       <c r="F411" s="2">
-        <v>19449</v>
+        <v>19549</v>
       </c>
       <c r="G411" s="2">
-        <v>21600</v>
+        <v>21399</v>
       </c>
       <c r="H411" s="3">
         <v>1.1000000000000001</v>
@@ -18694,16 +18698,16 @@
         <v>1.07</v>
       </c>
       <c r="J411" s="3">
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K411" s="3">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="L411" s="3">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="M411" s="3">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="412" spans="1:13">
@@ -18711,22 +18715,22 @@
         <v>429</v>
       </c>
       <c r="B412" s="2">
-        <v>19985</v>
+        <v>19774</v>
       </c>
       <c r="C412" s="2">
-        <v>18156</v>
+        <v>18614</v>
       </c>
       <c r="D412" s="2">
-        <v>21433</v>
+        <v>20993</v>
       </c>
       <c r="E412" s="2">
-        <v>19984</v>
+        <v>19907</v>
       </c>
       <c r="F412" s="2">
-        <v>18644</v>
+        <v>18845</v>
       </c>
       <c r="G412" s="2">
-        <v>21185</v>
+        <v>20875</v>
       </c>
       <c r="H412" s="3">
         <v>1.03</v>
@@ -18741,7 +18745,7 @@
         <v>1.02</v>
       </c>
       <c r="L412" s="3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="M412" s="3">
         <v>1.04</v>
@@ -18752,40 +18756,40 @@
         <v>430</v>
       </c>
       <c r="B413" s="2">
-        <v>19266</v>
+        <v>19321</v>
       </c>
       <c r="C413" s="2">
-        <v>17427</v>
+        <v>17963</v>
       </c>
       <c r="D413" s="2">
-        <v>20644</v>
+        <v>20662</v>
       </c>
       <c r="E413" s="2">
-        <v>19599</v>
+        <v>19533</v>
       </c>
       <c r="F413" s="2">
-        <v>18077</v>
+        <v>18355</v>
       </c>
       <c r="G413" s="2">
-        <v>20874</v>
+        <v>20649</v>
       </c>
       <c r="H413" s="3">
         <v>0.98</v>
       </c>
       <c r="I413" s="3">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="J413" s="3">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K413" s="3">
         <v>1.03</v>
       </c>
       <c r="L413" s="3">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="M413" s="3">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="414" spans="1:13">
@@ -18793,31 +18797,31 @@
         <v>431</v>
       </c>
       <c r="B414" s="2">
-        <v>20180</v>
+        <v>20091</v>
       </c>
       <c r="C414" s="2">
-        <v>17758</v>
+        <v>18050</v>
       </c>
       <c r="D414" s="2">
-        <v>22509</v>
+        <v>22035</v>
       </c>
       <c r="E414" s="2">
-        <v>19619</v>
+        <v>19560</v>
       </c>
       <c r="F414" s="2">
-        <v>17808</v>
+        <v>18144</v>
       </c>
       <c r="G414" s="2">
-        <v>21183</v>
+        <v>20952</v>
       </c>
       <c r="H414" s="3">
         <v>0.97</v>
       </c>
       <c r="I414" s="3">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="J414" s="3">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="K414" s="3">
         <v>1.04</v>
@@ -18826,7 +18830,7 @@
         <v>1.01</v>
       </c>
       <c r="M414" s="3">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="415" spans="1:13">
@@ -18834,31 +18838,31 @@
         <v>432</v>
       </c>
       <c r="B415" s="2">
-        <v>23735</v>
+        <v>23404</v>
       </c>
       <c r="C415" s="2">
-        <v>20330</v>
+        <v>20278</v>
       </c>
       <c r="D415" s="2">
-        <v>26584</v>
+        <v>26321</v>
       </c>
       <c r="E415" s="2">
-        <v>20792</v>
+        <v>20648</v>
       </c>
       <c r="F415" s="2">
-        <v>18418</v>
+        <v>18726</v>
       </c>
       <c r="G415" s="2">
-        <v>22792</v>
+        <v>22503</v>
       </c>
       <c r="H415" s="3">
         <v>1.01</v>
       </c>
       <c r="I415" s="3">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="J415" s="3">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K415" s="3">
         <v>1.04</v>
@@ -18867,7 +18871,7 @@
         <v>1</v>
       </c>
       <c r="M415" s="3">
-        <v>1.0900000000000001</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="416" spans="1:13">
@@ -18875,40 +18879,40 @@
         <v>433</v>
       </c>
       <c r="B416" s="2">
-        <v>22213</v>
+        <v>21774</v>
       </c>
       <c r="C416" s="2">
-        <v>17395</v>
+        <v>18645</v>
       </c>
       <c r="D416" s="2">
-        <v>26882</v>
+        <v>24746</v>
       </c>
       <c r="E416" s="2">
-        <v>21348</v>
+        <v>21148</v>
       </c>
       <c r="F416" s="2">
-        <v>18227</v>
+        <v>18734</v>
       </c>
       <c r="G416" s="2">
-        <v>24155</v>
+        <v>23441</v>
       </c>
       <c r="H416" s="3">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="I416" s="3">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="J416" s="3">
-        <v>1.1599999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K416" s="3">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="L416" s="3">
         <v>0.98</v>
       </c>
       <c r="M416" s="3">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="417" spans="1:13">
@@ -18916,40 +18920,40 @@
         <v>434</v>
       </c>
       <c r="B417" s="2">
-        <v>20284</v>
+        <v>19494</v>
       </c>
       <c r="C417" s="2">
-        <v>14454</v>
+        <v>15890</v>
       </c>
       <c r="D417" s="2">
-        <v>25907</v>
+        <v>23656</v>
       </c>
       <c r="E417" s="2">
-        <v>21603</v>
+        <v>21191</v>
       </c>
       <c r="F417" s="2">
-        <v>17484</v>
+        <v>18216</v>
       </c>
       <c r="G417" s="2">
-        <v>25470</v>
+        <v>24190</v>
       </c>
       <c r="H417" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="I417" s="3">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="J417" s="3">
-        <v>1.23</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="K417" s="3">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="L417" s="3">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="M417" s="3">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="418" spans="1:13">
@@ -18957,40 +18961,81 @@
         <v>435</v>
       </c>
       <c r="B418" s="2">
-        <v>17763</v>
+        <v>16430</v>
       </c>
       <c r="C418" s="2">
-        <v>11684</v>
+        <v>11678</v>
       </c>
       <c r="D418" s="2">
-        <v>24243</v>
+        <v>20727</v>
       </c>
       <c r="E418" s="2">
-        <v>20999</v>
+        <v>20275</v>
       </c>
       <c r="F418" s="2">
-        <v>15966</v>
+        <v>16623</v>
       </c>
       <c r="G418" s="2">
-        <v>25904</v>
+        <v>23863</v>
       </c>
       <c r="H418" s="3">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="I418" s="3">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="J418" s="3">
-        <v>1.22</v>
-      </c>
-      <c r="K418" s="3" t="s">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="K418" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="L418" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="M418" s="3">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="419" spans="1:13">
+      <c r="A419" t="s">
+        <v>436</v>
+      </c>
+      <c r="B419" s="2">
+        <v>12195</v>
+      </c>
+      <c r="C419" s="2">
+        <v>7663</v>
+      </c>
+      <c r="D419" s="2">
+        <v>16958</v>
+      </c>
+      <c r="E419" s="2">
+        <v>17473</v>
+      </c>
+      <c r="F419" s="2">
+        <v>13469</v>
+      </c>
+      <c r="G419" s="2">
+        <v>21522</v>
+      </c>
+      <c r="H419" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="I419" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="J419" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="K419" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="L419" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="L418" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="M418" s="3" t="s">
-        <v>454</v>
+      <c r="M419" s="3" t="s">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
